--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5387,28 +5387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.9760178280696</v>
+        <v>182.5487033003718</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.889607015241</v>
+        <v>249.7711893358581</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.4804936440246</v>
+        <v>225.9333775817823</v>
       </c>
       <c r="AD2" t="n">
-        <v>140976.0178280696</v>
+        <v>182548.7033003718</v>
       </c>
       <c r="AE2" t="n">
-        <v>192889.607015241</v>
+        <v>249771.1893358581</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50237309113132e-06</v>
+        <v>4.23038586880397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>174480.4936440246</v>
+        <v>225933.3775817823</v>
       </c>
     </row>
     <row r="3">
@@ -5493,28 +5493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.0936523779135</v>
+        <v>165.5809969956441</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.7904098089506</v>
+        <v>226.5552250073701</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.5858513991683</v>
+        <v>204.9331123049872</v>
       </c>
       <c r="AD3" t="n">
-        <v>124093.6523779135</v>
+        <v>165580.9969956441</v>
       </c>
       <c r="AE3" t="n">
-        <v>169790.4098089506</v>
+        <v>226555.2250073701</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.711326274335845e-06</v>
+        <v>4.583631592474375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>153585.8513991683</v>
+        <v>204933.1123049872</v>
       </c>
     </row>
     <row r="4">
@@ -5599,28 +5599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.1205431366814</v>
+        <v>151.3640852589745</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.3542264638905</v>
+        <v>207.1030191633886</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.6684897628278</v>
+        <v>187.3373976854068</v>
       </c>
       <c r="AD4" t="n">
-        <v>120120.5431366814</v>
+        <v>151364.0852589745</v>
       </c>
       <c r="AE4" t="n">
-        <v>164354.2264638905</v>
+        <v>207103.0191633886</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.849904809711769e-06</v>
+        <v>4.817905482267851e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.109374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>148668.4897628278</v>
+        <v>187337.3976854068</v>
       </c>
     </row>
     <row r="5">
@@ -5705,28 +5705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.1919254850407</v>
+        <v>147.7645214487918</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.2964773056828</v>
+        <v>202.1779371567515</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.4295854365544</v>
+        <v>182.8823585930856</v>
       </c>
       <c r="AD5" t="n">
-        <v>106191.9254850407</v>
+        <v>147764.5214487918</v>
       </c>
       <c r="AE5" t="n">
-        <v>145296.4773056828</v>
+        <v>202177.9371567515</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.983464920781507e-06</v>
+        <v>5.043695476776571e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.788194444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>131429.5854365545</v>
+        <v>182882.3585930856</v>
       </c>
     </row>
     <row r="6">
@@ -5811,28 +5811,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.3141556331293</v>
+        <v>134.6429491014429</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.3589856360539</v>
+        <v>184.2244229882013</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.8678824455694</v>
+        <v>166.6423026188607</v>
       </c>
       <c r="AD6" t="n">
-        <v>103314.1556331293</v>
+        <v>134642.9491014429</v>
       </c>
       <c r="AE6" t="n">
-        <v>141358.985636054</v>
+        <v>184224.4229882013</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.086937827522533e-06</v>
+        <v>5.218621559554822e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>127867.8824455695</v>
+        <v>166642.3026188607</v>
       </c>
     </row>
     <row r="7">
@@ -5917,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.4421523361144</v>
+        <v>133.7709458044281</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.1658722550084</v>
+        <v>183.0313096071558</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.7886381310654</v>
+        <v>165.5630583043566</v>
       </c>
       <c r="AD7" t="n">
-        <v>102442.1523361144</v>
+        <v>133770.9458044281</v>
       </c>
       <c r="AE7" t="n">
-        <v>140165.8722550084</v>
+        <v>183031.3096071558</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.112776877322288e-06</v>
+        <v>5.262303755276799e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>126788.6381310654</v>
+        <v>165563.0583043566</v>
       </c>
     </row>
     <row r="8">
@@ -6023,28 +6023,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.767729219216</v>
+        <v>132.9259304869375</v>
       </c>
       <c r="AB8" t="n">
-        <v>139.2430967930205</v>
+        <v>181.875122370321</v>
       </c>
       <c r="AC8" t="n">
-        <v>125.9539310640458</v>
+        <v>164.517215954686</v>
       </c>
       <c r="AD8" t="n">
-        <v>101767.729219216</v>
+        <v>132925.9304869375</v>
       </c>
       <c r="AE8" t="n">
-        <v>139243.0967930205</v>
+        <v>181875.122370321</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.137075387567586e-06</v>
+        <v>5.303381592446246e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>125953.9310640458</v>
+        <v>164517.215954686</v>
       </c>
     </row>
   </sheetData>
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.8168923532292</v>
+        <v>278.2303614611865</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.8172168193287</v>
+        <v>380.6870552084424</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.1574684071959</v>
+        <v>344.3548169569856</v>
       </c>
       <c r="AD2" t="n">
-        <v>211816.8923532292</v>
+        <v>278230.3614611865</v>
       </c>
       <c r="AE2" t="n">
-        <v>289817.2168193287</v>
+        <v>380687.0552084424</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.753558185015001e-06</v>
+        <v>2.838284774116023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>262157.4684071959</v>
+        <v>344354.8169569856</v>
       </c>
     </row>
     <row r="3">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.9079362646923</v>
+        <v>239.3236112334635</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.6309518427668</v>
+        <v>327.4531231020381</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.6156469652253</v>
+        <v>296.2014566166217</v>
       </c>
       <c r="AD3" t="n">
-        <v>183907.9362646923</v>
+        <v>239323.6112334635</v>
       </c>
       <c r="AE3" t="n">
-        <v>251630.9518427667</v>
+        <v>327453.1231020382</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.986991773732065e-06</v>
+        <v>3.216117118822187e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.539930555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>227615.6469652253</v>
+        <v>296201.4566166217</v>
       </c>
     </row>
     <row r="4">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.4144934003941</v>
+        <v>218.7448275145937</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.5909192089575</v>
+        <v>299.2963233460313</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.2517156915449</v>
+        <v>270.7319023110025</v>
       </c>
       <c r="AD4" t="n">
-        <v>163414.4934003941</v>
+        <v>218744.8275145937</v>
       </c>
       <c r="AE4" t="n">
-        <v>223590.9192089575</v>
+        <v>299296.3233460313</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.155848402786265e-06</v>
+        <v>3.489426099013792e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.793402777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>202251.7156915449</v>
+        <v>270731.9023110025</v>
       </c>
     </row>
     <row r="5">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.8266276845898</v>
+        <v>202.0739163135862</v>
       </c>
       <c r="AB5" t="n">
-        <v>215.9453548173609</v>
+        <v>276.4864471721289</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.3358332348629</v>
+        <v>250.0989687052678</v>
       </c>
       <c r="AD5" t="n">
-        <v>157826.6276845898</v>
+        <v>202073.9163135862</v>
       </c>
       <c r="AE5" t="n">
-        <v>215945.3548173609</v>
+        <v>276486.4471721289</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.276376045795852e-06</v>
+        <v>3.684510457740831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.324652777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>195335.8332348629</v>
+        <v>250098.9687052678</v>
       </c>
     </row>
     <row r="6">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.9402664936539</v>
+        <v>198.1875551226503</v>
       </c>
       <c r="AB6" t="n">
-        <v>210.62786398177</v>
+        <v>271.1689563365379</v>
       </c>
       <c r="AC6" t="n">
-        <v>190.5258362614738</v>
+        <v>245.2889717318787</v>
       </c>
       <c r="AD6" t="n">
-        <v>153940.2664936539</v>
+        <v>198187.5551226503</v>
       </c>
       <c r="AE6" t="n">
-        <v>210627.86398177</v>
+        <v>271168.9563365379</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.368906508457859e-06</v>
+        <v>3.834278971588713e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.003472222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>190525.8362614738</v>
+        <v>245288.9717318787</v>
       </c>
     </row>
     <row r="7">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>139.521608126489</v>
+        <v>183.8541481015059</v>
       </c>
       <c r="AB7" t="n">
-        <v>190.8996194975118</v>
+        <v>251.5573565049289</v>
       </c>
       <c r="AC7" t="n">
-        <v>172.6804277420219</v>
+        <v>227.549075463139</v>
       </c>
       <c r="AD7" t="n">
-        <v>139521.608126489</v>
+        <v>183854.1481015059</v>
       </c>
       <c r="AE7" t="n">
-        <v>190899.6194975118</v>
+        <v>251557.356504929</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.450867052798315e-06</v>
+        <v>3.966939163344934e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>172680.4277420219</v>
+        <v>227549.075463139</v>
       </c>
     </row>
     <row r="8">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.9473761526106</v>
+        <v>181.2799161276275</v>
       </c>
       <c r="AB8" t="n">
-        <v>187.3774417437537</v>
+        <v>248.0351787511708</v>
       </c>
       <c r="AC8" t="n">
-        <v>169.4944016896737</v>
+        <v>224.3630494107909</v>
       </c>
       <c r="AD8" t="n">
-        <v>136947.3761526106</v>
+        <v>181279.9161276275</v>
       </c>
       <c r="AE8" t="n">
-        <v>187377.4417437537</v>
+        <v>248035.1787511708</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.517758911928296e-06</v>
+        <v>4.075209391788659e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>169494.4016896737</v>
+        <v>224363.0494107909</v>
       </c>
     </row>
     <row r="9">
@@ -7062,28 +7062,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>133.6463335023904</v>
+        <v>177.8082812768152</v>
       </c>
       <c r="AB9" t="n">
-        <v>182.8608095580011</v>
+        <v>243.2851347905714</v>
       </c>
       <c r="AC9" t="n">
-        <v>165.4088305405949</v>
+        <v>220.0663429790609</v>
       </c>
       <c r="AD9" t="n">
-        <v>133646.3335023904</v>
+        <v>177808.2812768152</v>
       </c>
       <c r="AE9" t="n">
-        <v>182860.8095580011</v>
+        <v>243285.1347905714</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.603104450772556e-06</v>
+        <v>4.213348488346961e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.282986111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>165408.8305405949</v>
+        <v>220066.342979061</v>
       </c>
     </row>
     <row r="10">
@@ -7168,28 +7168,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.9156242458673</v>
+        <v>179.0775720202921</v>
       </c>
       <c r="AB10" t="n">
-        <v>184.5975091503809</v>
+        <v>245.0218343829512</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.9797819613517</v>
+        <v>221.6372943998178</v>
       </c>
       <c r="AD10" t="n">
-        <v>134915.6242458673</v>
+        <v>179077.5720202921</v>
       </c>
       <c r="AE10" t="n">
-        <v>184597.5091503809</v>
+        <v>245021.8343829512</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.582510580984905e-06</v>
+        <v>4.180015538486552e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH10" t="n">
-        <v>166979.7819613517</v>
+        <v>221637.2943998178</v>
       </c>
     </row>
     <row r="11">
@@ -7274,28 +7274,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>131.9997016448364</v>
+        <v>165.2491961346502</v>
       </c>
       <c r="AB11" t="n">
-        <v>180.6078152062263</v>
+        <v>226.1012404313376</v>
       </c>
       <c r="AC11" t="n">
-        <v>163.3708588076553</v>
+        <v>204.5224553797197</v>
       </c>
       <c r="AD11" t="n">
-        <v>131999.7016448364</v>
+        <v>165249.1961346502</v>
       </c>
       <c r="AE11" t="n">
-        <v>180607.8152062263</v>
+        <v>226101.2404313376</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.652023081021056e-06</v>
+        <v>4.292527499680277e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>163370.8588076553</v>
+        <v>204522.4553797197</v>
       </c>
     </row>
     <row r="12">
@@ -7380,28 +7380,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>131.0141281055205</v>
+        <v>164.2636225953343</v>
       </c>
       <c r="AB12" t="n">
-        <v>179.2593100092991</v>
+        <v>224.7527352344104</v>
       </c>
       <c r="AC12" t="n">
-        <v>162.1510530540835</v>
+        <v>203.302649626148</v>
       </c>
       <c r="AD12" t="n">
-        <v>131014.1281055205</v>
+        <v>164263.6225953343</v>
       </c>
       <c r="AE12" t="n">
-        <v>179259.3100092991</v>
+        <v>224752.7352344104</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.675128398343785e-06</v>
+        <v>4.3299254434261e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>162151.0530540835</v>
+        <v>203302.649626148</v>
       </c>
     </row>
     <row r="13">
@@ -7486,28 +7486,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>117.9036737487786</v>
+        <v>162.150872869224</v>
       </c>
       <c r="AB13" t="n">
-        <v>161.3210079659885</v>
+        <v>221.861977851208</v>
       </c>
       <c r="AC13" t="n">
-        <v>145.9247573812157</v>
+        <v>200.687782070394</v>
       </c>
       <c r="AD13" t="n">
-        <v>117903.6737487786</v>
+        <v>162150.872869224</v>
       </c>
       <c r="AE13" t="n">
-        <v>161321.0079659885</v>
+        <v>221861.977851208</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.728786020897609e-06</v>
+        <v>4.416774921482331e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>145924.7573812157</v>
+        <v>200687.782070394</v>
       </c>
     </row>
     <row r="14">
@@ -7592,28 +7592,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.5807428571563</v>
+        <v>160.8279419776017</v>
       </c>
       <c r="AB14" t="n">
-        <v>159.51091555648</v>
+        <v>220.0518854416995</v>
       </c>
       <c r="AC14" t="n">
-        <v>144.2874176507895</v>
+        <v>199.0504423399678</v>
       </c>
       <c r="AD14" t="n">
-        <v>116580.7428571563</v>
+        <v>160827.9419776017</v>
       </c>
       <c r="AE14" t="n">
-        <v>159510.91555648</v>
+        <v>220051.8854416995</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.757416522797513e-06</v>
+        <v>4.463115851776071e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH14" t="n">
-        <v>144287.4176507895</v>
+        <v>199050.4423399678</v>
       </c>
     </row>
     <row r="15">
@@ -7698,28 +7698,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>115.4581219180618</v>
+        <v>159.7053210385072</v>
       </c>
       <c r="AB15" t="n">
-        <v>157.9748960610712</v>
+        <v>218.5158659462907</v>
       </c>
       <c r="AC15" t="n">
-        <v>142.8979937002051</v>
+        <v>197.6610183893834</v>
       </c>
       <c r="AD15" t="n">
-        <v>115458.1219180618</v>
+        <v>159705.3210385072</v>
       </c>
       <c r="AE15" t="n">
-        <v>157974.8960610712</v>
+        <v>218515.8659462907</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.782203418035035e-06</v>
+        <v>4.503235574036478e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.814236111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>142897.9937002051</v>
+        <v>197661.0183893834</v>
       </c>
     </row>
     <row r="16">
@@ -7804,28 +7804,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>115.0868512426984</v>
+        <v>159.3340503631437</v>
       </c>
       <c r="AB16" t="n">
-        <v>157.466907143733</v>
+        <v>218.0078770289525</v>
       </c>
       <c r="AC16" t="n">
-        <v>142.4384865321706</v>
+        <v>197.2015112213489</v>
       </c>
       <c r="AD16" t="n">
-        <v>115086.8512426984</v>
+        <v>159334.0503631437</v>
       </c>
       <c r="AE16" t="n">
-        <v>157466.907143733</v>
+        <v>218007.8770289525</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.781504580460056e-06</v>
+        <v>4.502104445303146e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.814236111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>142438.4865321706</v>
+        <v>197201.5112213489</v>
       </c>
     </row>
     <row r="17">
@@ -7910,28 +7910,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>115.0544812013979</v>
+        <v>159.3016803218433</v>
       </c>
       <c r="AB17" t="n">
-        <v>157.4226170251603</v>
+        <v>217.9635869103799</v>
       </c>
       <c r="AC17" t="n">
-        <v>142.398423400353</v>
+        <v>197.1614480895312</v>
       </c>
       <c r="AD17" t="n">
-        <v>115054.481201398</v>
+        <v>159301.6803218433</v>
       </c>
       <c r="AE17" t="n">
-        <v>157422.6170251603</v>
+        <v>217963.5869103799</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.775913879860228e-06</v>
+        <v>4.49305541543648e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>142398.4234003529</v>
+        <v>197161.4480895312</v>
       </c>
     </row>
     <row r="18">
@@ -8016,28 +8016,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>115.1055684481905</v>
+        <v>159.3527675686358</v>
       </c>
       <c r="AB18" t="n">
-        <v>157.4925168500321</v>
+        <v>218.0334867352516</v>
       </c>
       <c r="AC18" t="n">
-        <v>142.4616520840439</v>
+        <v>197.2246767732222</v>
       </c>
       <c r="AD18" t="n">
-        <v>115105.5684481905</v>
+        <v>159352.7675686358</v>
       </c>
       <c r="AE18" t="n">
-        <v>157492.5168500321</v>
+        <v>218033.4867352516</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.774931139520414e-06</v>
+        <v>4.491464765655232e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>142461.6520840439</v>
+        <v>197224.6767732222</v>
       </c>
     </row>
   </sheetData>
@@ -8313,28 +8313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.26928102939407</v>
+        <v>134.8735825085582</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.9833891715244</v>
+        <v>184.539985790644</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.673395538352</v>
+        <v>166.9277485503335</v>
       </c>
       <c r="AD2" t="n">
-        <v>94269.28102939407</v>
+        <v>134873.5825085582</v>
       </c>
       <c r="AE2" t="n">
-        <v>128983.3891715244</v>
+        <v>184539.985790644</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.00752163799191e-06</v>
+        <v>6.446504105995636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>116673.395538352</v>
+        <v>166927.7485503335</v>
       </c>
     </row>
   </sheetData>
@@ -8610,28 +8610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.60041479876323</v>
+        <v>115.6498953779805</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.858752185166</v>
+        <v>158.2372889693797</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.4196010994603</v>
+        <v>143.1353441976155</v>
       </c>
       <c r="AD2" t="n">
-        <v>87600.41479876323</v>
+        <v>115649.8953779805</v>
       </c>
       <c r="AE2" t="n">
-        <v>119858.752185166</v>
+        <v>158237.2889693797</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.546635302399255e-06</v>
+        <v>6.534436271288897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.397569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>108419.6010994603</v>
+        <v>143135.3441976155</v>
       </c>
     </row>
   </sheetData>
@@ -8907,28 +8907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.8465620492966</v>
+        <v>186.7184188514075</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.1854563750808</v>
+        <v>255.4763781076496</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.2709145737343</v>
+        <v>231.0940711444786</v>
       </c>
       <c r="AD2" t="n">
-        <v>144846.5620492966</v>
+        <v>186718.4188514075</v>
       </c>
       <c r="AE2" t="n">
-        <v>198185.4563750808</v>
+        <v>255476.3781076496</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.418424569600815e-06</v>
+        <v>4.067013838043132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.315972222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>179270.9145737343</v>
+        <v>231094.0711444786</v>
       </c>
     </row>
     <row r="3">
@@ -9013,28 +9013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.670762253579</v>
+        <v>169.6278704017106</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.6847693517837</v>
+        <v>232.0923357370016</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.0131001365117</v>
+        <v>209.9417689579683</v>
       </c>
       <c r="AD3" t="n">
-        <v>127670.762253579</v>
+        <v>169627.8704017106</v>
       </c>
       <c r="AE3" t="n">
-        <v>174684.7693517837</v>
+        <v>232092.3357370016</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.616006762332167e-06</v>
+        <v>4.399283664478922e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>158013.1001365117</v>
+        <v>209941.7689579683</v>
       </c>
     </row>
     <row r="4">
@@ -9119,28 +9119,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.9083720370924</v>
+        <v>154.3762926567421</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.1686569557618</v>
+        <v>211.2244542142237</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.1188763621429</v>
+        <v>191.0654887594619</v>
       </c>
       <c r="AD4" t="n">
-        <v>122908.3720370924</v>
+        <v>154376.2926567421</v>
       </c>
       <c r="AE4" t="n">
-        <v>168168.6569557618</v>
+        <v>211224.4542142237</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.775601288465697e-06</v>
+        <v>4.66767042932565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.248263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>152118.8763621429</v>
+        <v>191065.4887594619</v>
       </c>
     </row>
     <row r="5">
@@ -9225,28 +9225,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.3233116858517</v>
+        <v>151.1950789794116</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.5809780526396</v>
+        <v>206.87177731566</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.3051794455576</v>
+        <v>187.1282252350754</v>
       </c>
       <c r="AD5" t="n">
-        <v>109323.3116858517</v>
+        <v>151195.0789794116</v>
       </c>
       <c r="AE5" t="n">
-        <v>149580.9780526396</v>
+        <v>206871.77731566</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.88249950880042e-06</v>
+        <v>4.847438922760723e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.979166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>135305.1794455576</v>
+        <v>187128.2252350754</v>
       </c>
     </row>
     <row r="6">
@@ -9331,28 +9331,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.5949599290952</v>
+        <v>147.4667272226551</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.479682695777</v>
+        <v>201.7704819587974</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.6907445578394</v>
+        <v>182.5137903473571</v>
       </c>
       <c r="AD6" t="n">
-        <v>105594.9599290952</v>
+        <v>147466.7272226551</v>
       </c>
       <c r="AE6" t="n">
-        <v>144479.682695777</v>
+        <v>201770.4819587974</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.019417251031958e-06</v>
+        <v>5.077690616085688e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.657986111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>130690.7445578394</v>
+        <v>182513.7903473571</v>
       </c>
     </row>
     <row r="7">
@@ -9437,28 +9437,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.1753214316743</v>
+        <v>147.0470887252343</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.9055147904621</v>
+        <v>201.1963140534826</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.1713744315579</v>
+        <v>181.9944202210756</v>
       </c>
       <c r="AD7" t="n">
-        <v>105175.3214316744</v>
+        <v>147047.0887252343</v>
       </c>
       <c r="AE7" t="n">
-        <v>143905.5147904622</v>
+        <v>201196.3140534826</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.028752025202032e-06</v>
+        <v>5.093388709878608e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>130171.3744315579</v>
+        <v>181994.4202210756</v>
       </c>
     </row>
     <row r="8">
@@ -9543,28 +9543,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.5619320550001</v>
+        <v>135.1151040206703</v>
       </c>
       <c r="AB8" t="n">
-        <v>141.6980042675817</v>
+        <v>184.8704461786928</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.1745456147199</v>
+        <v>167.2266702627511</v>
       </c>
       <c r="AD8" t="n">
-        <v>103561.9320550001</v>
+        <v>135115.1040206703</v>
       </c>
       <c r="AE8" t="n">
-        <v>141698.0042675817</v>
+        <v>184870.4461786928</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.082259043397744e-06</v>
+        <v>5.183370339311982e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>128174.5456147199</v>
+        <v>167226.6702627511</v>
       </c>
     </row>
     <row r="9">
@@ -9649,28 +9649,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>102.9281078913956</v>
+        <v>134.3106876564737</v>
       </c>
       <c r="AB9" t="n">
-        <v>140.8307780845899</v>
+        <v>183.7698082208542</v>
       </c>
       <c r="AC9" t="n">
-        <v>127.390086281473</v>
+        <v>166.2310756468532</v>
       </c>
       <c r="AD9" t="n">
-        <v>102928.1078913956</v>
+        <v>134310.6876564737</v>
       </c>
       <c r="AE9" t="n">
-        <v>140830.7780845899</v>
+        <v>183769.8082208542</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.108804083593539e-06</v>
+        <v>5.228010576251656e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>127390.086281473</v>
+        <v>166231.0756468532</v>
       </c>
     </row>
   </sheetData>
@@ -9946,28 +9946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.79014038917548</v>
+        <v>121.8461817658616</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.9595636924987</v>
+        <v>166.715321366137</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.842721122587</v>
+        <v>150.8042450814222</v>
       </c>
       <c r="AD2" t="n">
-        <v>92790.14038917547</v>
+        <v>121846.1817658616</v>
       </c>
       <c r="AE2" t="n">
-        <v>126959.5636924987</v>
+        <v>166715.321366137</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.387330586924593e-06</v>
+        <v>6.051218891978814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.449652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>114842.721122587</v>
+        <v>150804.2450814222</v>
       </c>
     </row>
     <row r="3">
@@ -10052,28 +10052,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.50474720509479</v>
+        <v>120.5607885817809</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.2008320304954</v>
+        <v>164.9565897041337</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.2518403420092</v>
+        <v>149.2133643008445</v>
       </c>
       <c r="AD3" t="n">
-        <v>91504.74720509478</v>
+        <v>120560.7885817809</v>
       </c>
       <c r="AE3" t="n">
-        <v>125200.8320304954</v>
+        <v>164956.5897041337</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.452936455037172e-06</v>
+        <v>6.168418987558486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>113251.8403420092</v>
+        <v>149213.3643008445</v>
       </c>
     </row>
     <row r="4">
@@ -10158,28 +10158,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.56219402116903</v>
+        <v>120.6182353978552</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.2794332986228</v>
+        <v>165.0351909722611</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.3229400154242</v>
+        <v>149.2844639742594</v>
       </c>
       <c r="AD4" t="n">
-        <v>91562.19402116904</v>
+        <v>120618.2353978552</v>
       </c>
       <c r="AE4" t="n">
-        <v>125279.4332986228</v>
+        <v>165035.1909722611</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.451351650707766e-06</v>
+        <v>6.165587850280297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>113322.9400154242</v>
+        <v>149284.4639742594</v>
       </c>
     </row>
   </sheetData>
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.0821814446865</v>
+        <v>237.5758610191119</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.5011176683038</v>
+        <v>325.0617741534658</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.5936425786406</v>
+        <v>294.038334655421</v>
       </c>
       <c r="AD2" t="n">
-        <v>183082.1814446865</v>
+        <v>237575.8610191119</v>
       </c>
       <c r="AE2" t="n">
-        <v>250501.1176683038</v>
+        <v>325061.7741534658</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.95558738974912e-06</v>
+        <v>3.201081133500766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>226593.6425786405</v>
+        <v>294038.334655421</v>
       </c>
     </row>
     <row r="3">
@@ -10561,28 +10561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.9173182248357</v>
+        <v>214.3256569446894</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.805929849281</v>
+        <v>293.2498192122453</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.9233990005796</v>
+        <v>265.2624680454213</v>
       </c>
       <c r="AD3" t="n">
-        <v>159917.3182248357</v>
+        <v>214325.6569446894</v>
       </c>
       <c r="AE3" t="n">
-        <v>218805.929849281</v>
+        <v>293249.8192122453</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.176076494017592e-06</v>
+        <v>3.561997508558204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.871527777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>197923.3990005796</v>
+        <v>265262.4680454212</v>
       </c>
     </row>
     <row r="4">
@@ -10667,28 +10667,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.8107136966811</v>
+        <v>196.3204060102008</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.0823600126002</v>
+        <v>268.6142405480805</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.1278330219926</v>
+        <v>242.9780744327047</v>
       </c>
       <c r="AD4" t="n">
-        <v>152810.7136966811</v>
+        <v>196320.4060102008</v>
       </c>
       <c r="AE4" t="n">
-        <v>209082.3600126002</v>
+        <v>268614.2405480805</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.338514065438935e-06</v>
+        <v>3.827889919183357e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>189127.8330219926</v>
+        <v>242978.0744327047</v>
       </c>
     </row>
     <row r="5">
@@ -10773,28 +10773,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.7568866387466</v>
+        <v>180.3518302982869</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.1168055870808</v>
+        <v>246.7653307752104</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.2586402819886</v>
+        <v>223.2143939434129</v>
       </c>
       <c r="AD5" t="n">
-        <v>136756.8866387466</v>
+        <v>180351.8302982869</v>
       </c>
       <c r="AE5" t="n">
-        <v>187116.8055870808</v>
+        <v>246765.3307752104</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.470758614414318e-06</v>
+        <v>4.044359678066249e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>169258.6402819886</v>
+        <v>223214.3939434129</v>
       </c>
     </row>
     <row r="6">
@@ -10879,28 +10879,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.7495683368301</v>
+        <v>177.3445119963704</v>
       </c>
       <c r="AB6" t="n">
-        <v>183.002060012881</v>
+        <v>242.6505852010105</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.5366002503073</v>
+        <v>219.4923539117317</v>
       </c>
       <c r="AD6" t="n">
-        <v>133749.5683368301</v>
+        <v>177344.5119963704</v>
       </c>
       <c r="AE6" t="n">
-        <v>183002.060012881</v>
+        <v>242650.5852010105</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.552310901845674e-06</v>
+        <v>4.177851788957716e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.560763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>165536.6002503074</v>
+        <v>219492.3539117317</v>
       </c>
     </row>
     <row r="7">
@@ -10985,28 +10985,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.8622538824862</v>
+        <v>174.2866053414342</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.0515089971258</v>
+        <v>238.4666224104085</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.9630842788614</v>
+        <v>215.7077026576347</v>
       </c>
       <c r="AD7" t="n">
-        <v>130862.2538824862</v>
+        <v>174286.6053414342</v>
       </c>
       <c r="AE7" t="n">
-        <v>179051.5089971258</v>
+        <v>238466.6224104085</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.640288655762216e-06</v>
+        <v>4.32186168066915e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.309027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>161963.0842788614</v>
+        <v>215707.7026576347</v>
       </c>
     </row>
     <row r="8">
@@ -11091,28 +11091,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>127.6968678549104</v>
+        <v>160.3931651081166</v>
       </c>
       <c r="AB8" t="n">
-        <v>174.720488187223</v>
+        <v>219.4570045478685</v>
       </c>
       <c r="AC8" t="n">
-        <v>158.0454100164284</v>
+        <v>198.5123360437233</v>
       </c>
       <c r="AD8" t="n">
-        <v>127696.8678549103</v>
+        <v>160393.1651081166</v>
       </c>
       <c r="AE8" t="n">
-        <v>174720.488187223</v>
+        <v>219457.0045478685</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.728310876574849e-06</v>
+        <v>4.465944359791102e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.074652777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>158045.4100164284</v>
+        <v>198512.3360437232</v>
       </c>
     </row>
     <row r="9">
@@ -11197,28 +11197,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>128.3165447928243</v>
+        <v>161.0128420460306</v>
       </c>
       <c r="AB9" t="n">
-        <v>175.5683575118935</v>
+        <v>220.3048738725391</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.8123598827448</v>
+        <v>199.2792859100396</v>
       </c>
       <c r="AD9" t="n">
-        <v>128316.5447928243</v>
+        <v>161012.8420460306</v>
       </c>
       <c r="AE9" t="n">
-        <v>175568.3575118935</v>
+        <v>220304.8738725391</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.71341446638428e-06</v>
+        <v>4.441560577267306e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.109374999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>158812.3598827448</v>
+        <v>199279.2859100396</v>
       </c>
     </row>
     <row r="10">
@@ -11303,28 +11303,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.0654526490866</v>
+        <v>158.5750554540552</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.437628643914</v>
+        <v>216.969386709846</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.4120023312817</v>
+        <v>196.2621329607672</v>
       </c>
       <c r="AD10" t="n">
-        <v>115065.4526490866</v>
+        <v>158575.0554540553</v>
       </c>
       <c r="AE10" t="n">
-        <v>157437.628643914</v>
+        <v>216969.386709846</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.772066302328641e-06</v>
+        <v>4.537567171741594e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>142412.0023312817</v>
+        <v>196262.1329607672</v>
       </c>
     </row>
     <row r="11">
@@ -11409,28 +11409,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>113.302784824477</v>
+        <v>156.8123876294457</v>
       </c>
       <c r="AB11" t="n">
-        <v>155.0258687628682</v>
+        <v>214.5576268288002</v>
       </c>
       <c r="AC11" t="n">
-        <v>140.2304174283559</v>
+        <v>194.0805480578414</v>
       </c>
       <c r="AD11" t="n">
-        <v>113302.784824477</v>
+        <v>156812.3876294456</v>
       </c>
       <c r="AE11" t="n">
-        <v>155025.8687628682</v>
+        <v>214557.6268288002</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.826293682111923e-06</v>
+        <v>4.626331418869265e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>140230.4174283559</v>
+        <v>194080.5480578414</v>
       </c>
     </row>
     <row r="12">
@@ -11515,28 +11515,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>111.8138196765588</v>
+        <v>155.3234224815274</v>
       </c>
       <c r="AB12" t="n">
-        <v>152.9886009589813</v>
+        <v>212.5203590249133</v>
       </c>
       <c r="AC12" t="n">
-        <v>138.387583604348</v>
+        <v>192.2377142338335</v>
       </c>
       <c r="AD12" t="n">
-        <v>111813.8196765588</v>
+        <v>155323.4224815274</v>
       </c>
       <c r="AE12" t="n">
-        <v>152988.6009589813</v>
+        <v>212520.3590249133</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.85481919595446e-06</v>
+        <v>4.673024542717069e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.762152777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>138387.583604348</v>
+        <v>192237.7142338335</v>
       </c>
     </row>
     <row r="13">
@@ -11621,28 +11621,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>111.0974253534781</v>
+        <v>154.6070281584467</v>
       </c>
       <c r="AB13" t="n">
-        <v>152.0083986410558</v>
+        <v>211.5401567069877</v>
       </c>
       <c r="AC13" t="n">
-        <v>137.5009304199223</v>
+        <v>191.3510610494079</v>
       </c>
       <c r="AD13" t="n">
-        <v>111097.4253534781</v>
+        <v>154607.0281584467</v>
       </c>
       <c r="AE13" t="n">
-        <v>152008.3986410558</v>
+        <v>211540.1567069877</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.876763609175494e-06</v>
+        <v>4.708945129808094e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>137500.9304199223</v>
+        <v>191351.0610494079</v>
       </c>
     </row>
     <row r="14">
@@ -11727,28 +11727,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>110.9390271745798</v>
+        <v>154.4486299795485</v>
       </c>
       <c r="AB14" t="n">
-        <v>151.7916712646529</v>
+        <v>211.3234293305848</v>
       </c>
       <c r="AC14" t="n">
-        <v>137.3048872001445</v>
+        <v>191.15501782963</v>
       </c>
       <c r="AD14" t="n">
-        <v>110939.0271745798</v>
+        <v>154448.6299795485</v>
       </c>
       <c r="AE14" t="n">
-        <v>151791.6712646529</v>
+        <v>211323.4293305848</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.873161790592102e-06</v>
+        <v>4.703049349556073e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH14" t="n">
-        <v>137304.8872001445</v>
+        <v>191155.01782963</v>
       </c>
     </row>
   </sheetData>
@@ -12024,28 +12024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.1984536784035</v>
+        <v>146.4702467185346</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.9878506367023</v>
+        <v>200.4070533714431</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.814273312829</v>
+        <v>181.2804854707954</v>
       </c>
       <c r="AD2" t="n">
-        <v>116198.4536784035</v>
+        <v>146470.2467185346</v>
       </c>
       <c r="AE2" t="n">
-        <v>158987.8506367024</v>
+        <v>200407.0533714432</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.894774675037759e-06</v>
+        <v>5.013144750920188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>143814.273312829</v>
+        <v>181280.4854707955</v>
       </c>
     </row>
     <row r="3">
@@ -12130,28 +12130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.4164700528462</v>
+        <v>141.6934005737146</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.7624885051328</v>
+        <v>193.8711617365251</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.519191356616</v>
+        <v>175.3683701603304</v>
       </c>
       <c r="AD3" t="n">
-        <v>101416.4700528462</v>
+        <v>141693.4005737146</v>
       </c>
       <c r="AE3" t="n">
-        <v>138762.4885051328</v>
+        <v>193871.1617365251</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.093717390893387e-06</v>
+        <v>5.35767195724323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>125519.1913566161</v>
+        <v>175368.3701603304</v>
       </c>
     </row>
     <row r="4">
@@ -12236,28 +12236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.20708978861693</v>
+        <v>128.3935419741763</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.371272839752</v>
+        <v>175.6737084522952</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.5470671512279</v>
+        <v>158.9076562772555</v>
       </c>
       <c r="AD4" t="n">
-        <v>98207.08978861693</v>
+        <v>128393.5419741763</v>
       </c>
       <c r="AE4" t="n">
-        <v>134371.272839752</v>
+        <v>175673.7084522952</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.226209038168521e-06</v>
+        <v>5.587119800560928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.493055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>121547.0671512279</v>
+        <v>158907.6562772555</v>
       </c>
     </row>
     <row r="5">
@@ -12342,28 +12342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.60592072738197</v>
+        <v>125.7923729129414</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.8122385746922</v>
+        <v>172.1146741872354</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.3277021212883</v>
+        <v>155.6882912473159</v>
       </c>
       <c r="AD5" t="n">
-        <v>95605.92072738198</v>
+        <v>125792.3729129414</v>
       </c>
       <c r="AE5" t="n">
-        <v>130812.2385746922</v>
+        <v>172114.6741872354</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.348776488791554e-06</v>
+        <v>5.799381009360025e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.258680555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>118327.7021212883</v>
+        <v>155688.2912473159</v>
       </c>
     </row>
     <row r="6">
@@ -12448,28 +12448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.66377439960033</v>
+        <v>125.8502265851597</v>
       </c>
       <c r="AB6" t="n">
-        <v>130.8913965213452</v>
+        <v>172.1938321338884</v>
       </c>
       <c r="AC6" t="n">
-        <v>118.3993053446116</v>
+        <v>155.7598944706392</v>
       </c>
       <c r="AD6" t="n">
-        <v>95663.77439960033</v>
+        <v>125850.2265851597</v>
       </c>
       <c r="AE6" t="n">
-        <v>130891.3965213452</v>
+        <v>172193.8321338884</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.347206968639761e-06</v>
+        <v>5.796662928475087e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.258680555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>118399.3053446116</v>
+        <v>155759.8944706392</v>
       </c>
     </row>
   </sheetData>
@@ -12745,28 +12745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.5376658536951</v>
+        <v>206.6159485794547</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.077008024692</v>
+        <v>282.7010560986084</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.0275532238079</v>
+        <v>255.7204640780645</v>
       </c>
       <c r="AD2" t="n">
-        <v>153537.6658536951</v>
+        <v>206615.9485794547</v>
       </c>
       <c r="AE2" t="n">
-        <v>210077.008024692</v>
+        <v>282701.0560986084</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.244592304340475e-06</v>
+        <v>3.737892971038061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>190027.5532238079</v>
+        <v>255720.4640780645</v>
       </c>
     </row>
     <row r="3">
@@ -12851,28 +12851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.6590126266751</v>
+        <v>187.1046601449195</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.9288429809536</v>
+        <v>256.0048504851956</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.0387920017834</v>
+        <v>231.5721068600275</v>
       </c>
       <c r="AD3" t="n">
-        <v>144659.0126266751</v>
+        <v>187104.6601449195</v>
       </c>
       <c r="AE3" t="n">
-        <v>197928.8429809536</v>
+        <v>256004.8504851956</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.467971734361645e-06</v>
+        <v>4.109884089307515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.029513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>179038.7920017834</v>
+        <v>231572.1068600275</v>
       </c>
     </row>
     <row r="4">
@@ -12957,28 +12957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.0817592741447</v>
+        <v>171.6126581384096</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.6153577241158</v>
+        <v>234.808009881007</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.7594358641869</v>
+        <v>212.3982629731433</v>
       </c>
       <c r="AD4" t="n">
-        <v>129081.7592741447</v>
+        <v>171612.6581384096</v>
       </c>
       <c r="AE4" t="n">
-        <v>176615.3577241158</v>
+        <v>234808.009881007</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.613573574389752e-06</v>
+        <v>4.352353108451364e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>159759.4358641869</v>
+        <v>212398.2629731433</v>
       </c>
     </row>
     <row r="5">
@@ -13063,28 +13063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.3173742204317</v>
+        <v>157.2156378771814</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.4647600206806</v>
+        <v>215.1093716078973</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.1004039766567</v>
+        <v>194.5796350896004</v>
       </c>
       <c r="AD5" t="n">
-        <v>125317.3742204317</v>
+        <v>157215.6378771814</v>
       </c>
       <c r="AE5" t="n">
-        <v>171464.7600206806</v>
+        <v>215109.3716078973</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.73589007781882e-06</v>
+        <v>4.556045332435802e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>155100.4039766566</v>
+        <v>194579.6350896004</v>
       </c>
     </row>
     <row r="6">
@@ -13169,28 +13169,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.6371659017663</v>
+        <v>154.535429558516</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.7975807566385</v>
+        <v>211.4421923438553</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.7832151546552</v>
+        <v>191.262446267599</v>
       </c>
       <c r="AD6" t="n">
-        <v>122637.1659017663</v>
+        <v>154535.429558516</v>
       </c>
       <c r="AE6" t="n">
-        <v>167797.5807566385</v>
+        <v>211442.1923438553</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.825538623725119e-06</v>
+        <v>4.705335993799537e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>151783.2151546552</v>
+        <v>191262.4462675989</v>
       </c>
     </row>
     <row r="7">
@@ -13275,28 +13275,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.7528503895444</v>
+        <v>151.1984083992377</v>
       </c>
       <c r="AB7" t="n">
-        <v>148.8004477400561</v>
+        <v>206.8763327747496</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.5991418505256</v>
+        <v>187.1323459275431</v>
       </c>
       <c r="AD7" t="n">
-        <v>108752.8503895444</v>
+        <v>151198.4083992377</v>
       </c>
       <c r="AE7" t="n">
-        <v>148800.4477400561</v>
+        <v>206876.3327747496</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.931053158784685e-06</v>
+        <v>4.881048098923851e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.762152777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>134599.1418505256</v>
+        <v>187132.3459275431</v>
       </c>
     </row>
     <row r="8">
@@ -13381,28 +13381,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.9476950965933</v>
+        <v>150.3932531062866</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.6987987472964</v>
+        <v>205.7746837819899</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.6026326914605</v>
+        <v>186.135836768478</v>
       </c>
       <c r="AD8" t="n">
-        <v>107947.6950965933</v>
+        <v>150393.2531062866</v>
       </c>
       <c r="AE8" t="n">
-        <v>147698.7987472964</v>
+        <v>205774.6837819899</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.95997719944251e-06</v>
+        <v>4.929214961146375e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>133602.6326914605</v>
+        <v>186135.836768478</v>
       </c>
     </row>
     <row r="9">
@@ -13487,28 +13487,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>106.2194521484256</v>
+        <v>138.2029671511959</v>
       </c>
       <c r="AB9" t="n">
-        <v>145.3341405009167</v>
+        <v>189.0953967407827</v>
       </c>
       <c r="AC9" t="n">
-        <v>131.4636541092958</v>
+        <v>171.0483974729518</v>
       </c>
       <c r="AD9" t="n">
-        <v>106219.4521484256</v>
+        <v>138202.9671511959</v>
       </c>
       <c r="AE9" t="n">
-        <v>145334.1405009167</v>
+        <v>189095.3967407827</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.011935460324287e-06</v>
+        <v>5.015740437404042e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>131463.6541092958</v>
+        <v>171048.3974729519</v>
       </c>
     </row>
     <row r="10">
@@ -13593,28 +13593,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>105.4867332950501</v>
+        <v>137.4702482978204</v>
       </c>
       <c r="AB10" t="n">
-        <v>144.3316022404544</v>
+        <v>188.0928584803204</v>
       </c>
       <c r="AC10" t="n">
-        <v>130.5567966933405</v>
+        <v>170.1415400569965</v>
       </c>
       <c r="AD10" t="n">
-        <v>105486.7332950501</v>
+        <v>137470.2482978204</v>
       </c>
       <c r="AE10" t="n">
-        <v>144331.6022404544</v>
+        <v>188092.8584803204</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.033508639820456e-06</v>
+        <v>5.051665997625261e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>130556.7966933405</v>
+        <v>170141.5400569965</v>
       </c>
     </row>
     <row r="11">
@@ -13699,28 +13699,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>105.5641459221104</v>
+        <v>137.5476609248807</v>
       </c>
       <c r="AB11" t="n">
-        <v>144.4375216120023</v>
+        <v>188.1987778518683</v>
       </c>
       <c r="AC11" t="n">
-        <v>130.6526072687267</v>
+        <v>170.2373506323827</v>
       </c>
       <c r="AD11" t="n">
-        <v>105564.1459221104</v>
+        <v>137547.6609248807</v>
       </c>
       <c r="AE11" t="n">
-        <v>144437.5216120023</v>
+        <v>188198.7778518683</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.032390030513247e-06</v>
+        <v>5.049803190798976e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>130652.6072687267</v>
+        <v>170237.3506323827</v>
       </c>
     </row>
   </sheetData>
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.57940800849902</v>
+        <v>111.8402535006242</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7252774173153</v>
+        <v>153.0247688832456</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.6806193620836</v>
+        <v>138.4202997126825</v>
       </c>
       <c r="AD2" t="n">
-        <v>84579.40800849901</v>
+        <v>111840.2535006242</v>
       </c>
       <c r="AE2" t="n">
-        <v>115725.2774173153</v>
+        <v>153024.7688832456</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606823059796745e-06</v>
+        <v>6.82488538037813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>104680.6193620836</v>
+        <v>138420.2997126825</v>
       </c>
     </row>
   </sheetData>
@@ -14293,28 +14293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.89224560927893</v>
+        <v>117.2968866001754</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.6262920916658</v>
+        <v>160.4907750197103</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.0184494780421</v>
+        <v>145.1737607020908</v>
       </c>
       <c r="AD2" t="n">
-        <v>88892.24560927894</v>
+        <v>117296.8866001754</v>
       </c>
       <c r="AE2" t="n">
-        <v>121626.2920916658</v>
+        <v>160490.7750197103</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.516288786706759e-06</v>
+        <v>6.405914520135785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.362847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>110018.4494780421</v>
+        <v>145173.7607020908</v>
       </c>
     </row>
     <row r="3">
@@ -14399,28 +14399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.94365816048419</v>
+        <v>117.3482991513806</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.6966370123865</v>
+        <v>160.5611199404309</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.082080778259</v>
+        <v>145.2373920023076</v>
       </c>
       <c r="AD3" t="n">
-        <v>88943.65816048419</v>
+        <v>117348.2991513806</v>
       </c>
       <c r="AE3" t="n">
-        <v>121696.6370123865</v>
+        <v>160561.1199404309</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.514304003240304e-06</v>
+        <v>6.402298675704818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.362847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>110082.080778259</v>
+        <v>145237.3920023076</v>
       </c>
     </row>
   </sheetData>
@@ -14696,28 +14696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.1712387107981</v>
+        <v>253.8934967111578</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.5148756188981</v>
+        <v>347.3882831905918</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.5064383669404</v>
+        <v>314.234033005503</v>
       </c>
       <c r="AD2" t="n">
-        <v>199171.2387107981</v>
+        <v>253893.4967111578</v>
       </c>
       <c r="AE2" t="n">
-        <v>272514.8756188981</v>
+        <v>347388.2831905918</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.893356458210762e-06</v>
+        <v>3.087191886767045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>246506.4383669404</v>
+        <v>314234.033005503</v>
       </c>
     </row>
     <row r="3">
@@ -14802,28 +14802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.5103441648529</v>
+        <v>218.3564411505082</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.77275173927</v>
+        <v>298.7649159882927</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.984615433005</v>
+        <v>270.2512117256514</v>
       </c>
       <c r="AD3" t="n">
-        <v>174510.3441648529</v>
+        <v>218356.4411505082</v>
       </c>
       <c r="AE3" t="n">
-        <v>238772.75173927</v>
+        <v>298764.9159882927</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.12180022778877e-06</v>
+        <v>3.459678403484649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.036458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>215984.615433005</v>
+        <v>270251.2117256514</v>
       </c>
     </row>
     <row r="4">
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.8866724850029</v>
+        <v>199.6474286160866</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.2910225285044</v>
+        <v>273.1664196553294</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.9348266942752</v>
+        <v>247.0957999549828</v>
       </c>
       <c r="AD4" t="n">
-        <v>155886.6724850029</v>
+        <v>199647.4286160866</v>
       </c>
       <c r="AE4" t="n">
-        <v>213291.0225285044</v>
+        <v>273166.4196553294</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.283377016641004e-06</v>
+        <v>3.723135688282396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.402777777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>192934.8266942752</v>
+        <v>247095.7999549828</v>
       </c>
     </row>
     <row r="5">
@@ -15014,28 +15014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.5078994038273</v>
+        <v>195.268655534911</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.2997920210083</v>
+        <v>267.1751891478334</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.5153908176678</v>
+        <v>241.6763640783755</v>
       </c>
       <c r="AD5" t="n">
-        <v>151507.8994038273</v>
+        <v>195268.655534911</v>
       </c>
       <c r="AE5" t="n">
-        <v>207299.7920210083</v>
+        <v>267175.1891478334</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.39021834242062e-06</v>
+        <v>3.897344656006291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>187515.3908176678</v>
+        <v>241676.3640783755</v>
       </c>
     </row>
     <row r="6">
@@ -15120,28 +15120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>136.7063698980133</v>
+        <v>180.5523773751177</v>
       </c>
       <c r="AB6" t="n">
-        <v>187.0476863537684</v>
+        <v>247.0397281332427</v>
       </c>
       <c r="AC6" t="n">
-        <v>169.1961176912939</v>
+        <v>223.4626032027138</v>
       </c>
       <c r="AD6" t="n">
-        <v>136706.3698980134</v>
+        <v>180552.3773751176</v>
       </c>
       <c r="AE6" t="n">
-        <v>187047.6863537684</v>
+        <v>247039.7281332427</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.489612816744656e-06</v>
+        <v>4.059411240664424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>169196.1176912939</v>
+        <v>223462.6032027138</v>
       </c>
     </row>
     <row r="7">
@@ -15226,28 +15226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.7239296553948</v>
+        <v>177.3993449319069</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.9669800378424</v>
+        <v>242.7256100424699</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.5048682588514</v>
+        <v>219.5602184876202</v>
       </c>
       <c r="AD7" t="n">
-        <v>133723.9296553948</v>
+        <v>177399.3449319069</v>
       </c>
       <c r="AE7" t="n">
-        <v>182966.9800378424</v>
+        <v>242725.6100424699</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.574467147870555e-06</v>
+        <v>4.197769552155583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>165504.8682588514</v>
+        <v>219560.2184876202</v>
       </c>
     </row>
     <row r="8">
@@ -15332,28 +15332,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.0242759989669</v>
+        <v>163.9088711153461</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.2731948048059</v>
+        <v>224.26734860896</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.1636127041945</v>
+        <v>202.863587618986</v>
       </c>
       <c r="AD8" t="n">
-        <v>131024.2759989669</v>
+        <v>163908.8711153461</v>
       </c>
       <c r="AE8" t="n">
-        <v>179273.1948048059</v>
+        <v>224267.34860896</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.649930049119239e-06</v>
+        <v>4.320814769275975e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>162163.6127041946</v>
+        <v>202863.587618986</v>
       </c>
     </row>
     <row r="9">
@@ -15438,28 +15438,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>129.9580130896372</v>
+        <v>162.8426082060165</v>
       </c>
       <c r="AB9" t="n">
-        <v>177.8142868520622</v>
+        <v>222.8084406562163</v>
       </c>
       <c r="AC9" t="n">
-        <v>160.84394087887</v>
+        <v>201.5439157936615</v>
       </c>
       <c r="AD9" t="n">
-        <v>129958.0130896372</v>
+        <v>162842.6082060165</v>
       </c>
       <c r="AE9" t="n">
-        <v>177814.2868520622</v>
+        <v>222808.4406562163</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.681905105665899e-06</v>
+        <v>4.372951351757148e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>160843.94087887</v>
+        <v>201543.9157936615</v>
       </c>
     </row>
     <row r="10">
@@ -15544,28 +15544,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.1527783991289</v>
+        <v>161.0373735155081</v>
       </c>
       <c r="AB10" t="n">
-        <v>175.3442851071761</v>
+        <v>220.3384389113303</v>
       </c>
       <c r="AC10" t="n">
-        <v>158.6096726338459</v>
+        <v>199.3096475486374</v>
       </c>
       <c r="AD10" t="n">
-        <v>128152.7783991289</v>
+        <v>161037.3735155081</v>
       </c>
       <c r="AE10" t="n">
-        <v>175344.2851071761</v>
+        <v>220338.4389113303</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.733060776644144e-06</v>
+        <v>4.456362677564969e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.022569444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>158609.6726338459</v>
+        <v>199309.6475486374</v>
       </c>
     </row>
     <row r="11">
@@ -15650,28 +15650,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.1342510495219</v>
+        <v>159.8949176720545</v>
       </c>
       <c r="AB11" t="n">
-        <v>158.9000057674464</v>
+        <v>218.7752804247231</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.7348122346038</v>
+        <v>197.8956747140848</v>
       </c>
       <c r="AD11" t="n">
-        <v>116134.2510495218</v>
+        <v>159894.9176720545</v>
       </c>
       <c r="AE11" t="n">
-        <v>158900.0057674464</v>
+        <v>218775.2804247231</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.756064255472806e-06</v>
+        <v>4.493870751070775e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>143734.8122346038</v>
+        <v>197895.6747140848</v>
       </c>
     </row>
     <row r="12">
@@ -15756,28 +15756,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>114.2599896757046</v>
+        <v>158.0206562982373</v>
       </c>
       <c r="AB12" t="n">
-        <v>156.3355586692149</v>
+        <v>216.2108333264916</v>
       </c>
       <c r="AC12" t="n">
-        <v>141.4151123682026</v>
+        <v>195.5759748476837</v>
       </c>
       <c r="AD12" t="n">
-        <v>114259.9896757047</v>
+        <v>158020.6562982373</v>
       </c>
       <c r="AE12" t="n">
-        <v>156335.558669215</v>
+        <v>216210.8333264916</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.810291476457951e-06</v>
+        <v>4.582290359508095e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>141415.1123682026</v>
+        <v>195575.9748476837</v>
       </c>
     </row>
     <row r="13">
@@ -15862,28 +15862,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>112.9708190121865</v>
+        <v>156.7314856347191</v>
       </c>
       <c r="AB13" t="n">
-        <v>154.5716584931945</v>
+        <v>214.4469331504712</v>
       </c>
       <c r="AC13" t="n">
-        <v>139.8195563493316</v>
+        <v>193.9804188288126</v>
       </c>
       <c r="AD13" t="n">
-        <v>112970.8190121865</v>
+        <v>156731.4856347191</v>
       </c>
       <c r="AE13" t="n">
-        <v>154571.6584931946</v>
+        <v>214446.9331504712</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.838377376161341e-06</v>
+        <v>4.628085519379256e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.762152777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>139819.5563493316</v>
+        <v>193980.4188288126</v>
       </c>
     </row>
     <row r="14">
@@ -15968,28 +15968,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>112.0263763420905</v>
+        <v>155.7870429646231</v>
       </c>
       <c r="AB14" t="n">
-        <v>153.2794303660999</v>
+        <v>213.1547050233766</v>
       </c>
       <c r="AC14" t="n">
-        <v>138.6506566610329</v>
+        <v>192.8115191405139</v>
       </c>
       <c r="AD14" t="n">
-        <v>112026.3763420905</v>
+        <v>155787.0429646231</v>
       </c>
       <c r="AE14" t="n">
-        <v>153279.4303660999</v>
+        <v>213154.7050233766</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.860519053189506e-06</v>
+        <v>4.664188391283981e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>138650.6566610329</v>
+        <v>192811.5191405139</v>
       </c>
     </row>
     <row r="15">
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>112.0871048556044</v>
+        <v>155.847771478137</v>
       </c>
       <c r="AB15" t="n">
-        <v>153.3625217974425</v>
+        <v>213.2377964547192</v>
       </c>
       <c r="AC15" t="n">
-        <v>138.7258179627877</v>
+        <v>192.8866804422688</v>
       </c>
       <c r="AD15" t="n">
-        <v>112087.1048556044</v>
+        <v>155847.771478137</v>
       </c>
       <c r="AE15" t="n">
-        <v>153362.5217974425</v>
+        <v>213237.7964547192</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.858552377285806e-06</v>
+        <v>4.660981649168691e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>138725.8179627878</v>
+        <v>192886.6804422688</v>
       </c>
     </row>
     <row r="16">
@@ -16180,28 +16180,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>112.1627847397472</v>
+        <v>155.9234513622798</v>
       </c>
       <c r="AB16" t="n">
-        <v>153.4660703536875</v>
+        <v>213.3413450109642</v>
       </c>
       <c r="AC16" t="n">
-        <v>138.819483990156</v>
+        <v>192.9803464696371</v>
       </c>
       <c r="AD16" t="n">
-        <v>112162.7847397472</v>
+        <v>155923.4513622798</v>
       </c>
       <c r="AE16" t="n">
-        <v>153466.0703536875</v>
+        <v>213341.3450109642</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.857734770449437e-06</v>
+        <v>4.659648509188177e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.710069444444445</v>
       </c>
       <c r="AH16" t="n">
-        <v>138819.483990156</v>
+        <v>192980.3464696371</v>
       </c>
     </row>
   </sheetData>
@@ -16477,28 +16477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.68372571903893</v>
+        <v>116.8089847327361</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.7632771603914</v>
+        <v>159.823206159969</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.096746848977</v>
+        <v>144.5699036773842</v>
       </c>
       <c r="AD2" t="n">
-        <v>81683.72571903894</v>
+        <v>116808.9847327361</v>
       </c>
       <c r="AE2" t="n">
-        <v>111763.2771603914</v>
+        <v>159823.206159969</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.581753810475653e-06</v>
+        <v>7.019083425779468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>101096.746848977</v>
+        <v>144569.9036773842</v>
       </c>
     </row>
   </sheetData>
@@ -16774,28 +16774,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.9954041329698</v>
+        <v>160.5276378924414</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.1830057582692</v>
+        <v>219.6409961439022</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.5136101210412</v>
+        <v>198.6787677400654</v>
       </c>
       <c r="AD2" t="n">
-        <v>119995.4041329698</v>
+        <v>160527.6378924414</v>
       </c>
       <c r="AE2" t="n">
-        <v>164183.0057582692</v>
+        <v>219640.9961439022</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.774967254779473e-06</v>
+        <v>4.774279012691292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>148513.6101210412</v>
+        <v>198678.7677400654</v>
       </c>
     </row>
     <row r="3">
@@ -16880,28 +16880,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.4606325538188</v>
+        <v>145.078117659311</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.9276459379327</v>
+        <v>198.5022809762148</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.2868320098659</v>
+        <v>179.5575018796023</v>
       </c>
       <c r="AD3" t="n">
-        <v>104460.6325538188</v>
+        <v>145078.117659311</v>
       </c>
       <c r="AE3" t="n">
-        <v>142927.6459379327</v>
+        <v>198502.2809762149</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.983944084105722e-06</v>
+        <v>5.13381972030601e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>129286.8320098659</v>
+        <v>179557.5018796023</v>
       </c>
     </row>
     <row r="4">
@@ -16986,28 +16986,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.9381637591003</v>
+        <v>141.5556488645925</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.1080487326456</v>
+        <v>193.6826837709278</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.9272103975027</v>
+        <v>175.1978802672392</v>
       </c>
       <c r="AD4" t="n">
-        <v>100938.1637591003</v>
+        <v>141555.6488645925</v>
       </c>
       <c r="AE4" t="n">
-        <v>138108.0487326455</v>
+        <v>193682.6837709278</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.13761970507597e-06</v>
+        <v>5.398215738203836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.623263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>124927.2103975027</v>
+        <v>175197.8802672391</v>
       </c>
     </row>
     <row r="5">
@@ -17092,28 +17092,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.77644475325104</v>
+        <v>128.2183128772783</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.7820453036466</v>
+        <v>175.4339522713573</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.0140746641821</v>
+        <v>158.6907820897263</v>
       </c>
       <c r="AD5" t="n">
-        <v>97776.44475325104</v>
+        <v>128218.3128772783</v>
       </c>
       <c r="AE5" t="n">
-        <v>133782.0453036466</v>
+        <v>175433.9522713573</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.265594980838798e-06</v>
+        <v>5.618394795151449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.362847222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>121014.0746641821</v>
+        <v>158690.7820897263</v>
       </c>
     </row>
     <row r="6">
@@ -17198,28 +17198,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.75618796201172</v>
+        <v>128.198056086039</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.7543290682065</v>
+        <v>175.4062360359171</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.9890036273524</v>
+        <v>158.6657110528966</v>
       </c>
       <c r="AD6" t="n">
-        <v>97756.18796201173</v>
+        <v>128198.056086039</v>
       </c>
       <c r="AE6" t="n">
-        <v>133754.3290682065</v>
+        <v>175406.2360359171</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.266719670061096e-06</v>
+        <v>5.620329801822454e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.362847222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>120989.0036273524</v>
+        <v>158665.7110528966</v>
       </c>
     </row>
     <row r="7">
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.79583533160005</v>
+        <v>128.2377034556273</v>
       </c>
       <c r="AB7" t="n">
-        <v>133.8085763483957</v>
+        <v>175.4604833161063</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.0380736232569</v>
+        <v>158.7147810488011</v>
       </c>
       <c r="AD7" t="n">
-        <v>97795.83533160004</v>
+        <v>128237.7034556273</v>
       </c>
       <c r="AE7" t="n">
-        <v>133808.5763483957</v>
+        <v>175460.4833161063</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.26621714934475e-06</v>
+        <v>5.619465224373708e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.362847222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>121038.0736232569</v>
+        <v>158714.7810488011</v>
       </c>
     </row>
   </sheetData>
@@ -17601,28 +17601,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.79779173316705</v>
+        <v>114.6503076904816</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.4970561313587</v>
+        <v>156.869608996648</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.9015476164029</v>
+        <v>141.89819368193</v>
       </c>
       <c r="AD2" t="n">
-        <v>88797.79173316705</v>
+        <v>114650.3076904816</v>
       </c>
       <c r="AE2" t="n">
-        <v>121497.0561313587</v>
+        <v>156869.608996648</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.530932428100826e-06</v>
+        <v>7.078320331087402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.039930555555554</v>
       </c>
       <c r="AH2" t="n">
-        <v>109901.5476164029</v>
+        <v>141898.19368193</v>
       </c>
     </row>
   </sheetData>
@@ -17898,28 +17898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.3671389000768</v>
+        <v>211.1738810901425</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.3673472769188</v>
+        <v>288.9374204415191</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.3814109754786</v>
+        <v>261.3616385608821</v>
       </c>
       <c r="AD2" t="n">
-        <v>168367.1389000768</v>
+        <v>211173.8810901425</v>
       </c>
       <c r="AE2" t="n">
-        <v>230367.3472769188</v>
+        <v>288937.4204415191</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.172876435647251e-06</v>
+        <v>3.601951665600248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.053819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>208381.4109754786</v>
+        <v>261361.6385608821</v>
       </c>
     </row>
     <row r="3">
@@ -18004,28 +18004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.4917644460997</v>
+        <v>191.2131657815939</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.1729831093643</v>
+        <v>261.626289151767</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.7824387565371</v>
+        <v>236.6570433100018</v>
       </c>
       <c r="AD3" t="n">
-        <v>148491.7644460997</v>
+        <v>191213.1657815939</v>
       </c>
       <c r="AE3" t="n">
-        <v>203172.9831093643</v>
+        <v>261626.289151767</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.385489227674754e-06</v>
+        <v>3.954397385848147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.246527777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>183782.4387565371</v>
+        <v>236657.0433100018</v>
       </c>
     </row>
     <row r="4">
@@ -18110,28 +18110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.9087055390779</v>
+        <v>174.7153582205926</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.4833103198627</v>
+        <v>239.0532610149147</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.2582364929026</v>
+        <v>216.2383532970795</v>
       </c>
       <c r="AD4" t="n">
-        <v>131908.7055390779</v>
+        <v>174715.3582205926</v>
       </c>
       <c r="AE4" t="n">
-        <v>180483.3103198627</v>
+        <v>239053.2610149147</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.547998130772764e-06</v>
+        <v>4.223786479763367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.725694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>163258.2364929026</v>
+        <v>216238.3532970795</v>
       </c>
     </row>
     <row r="5">
@@ -18216,28 +18216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.1921743157587</v>
+        <v>170.8282347966812</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.3981883383342</v>
+        <v>233.7347272585393</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.658431416276</v>
+        <v>211.4274129378019</v>
       </c>
       <c r="AD5" t="n">
-        <v>128192.1743157587</v>
+        <v>170828.2347966812</v>
       </c>
       <c r="AE5" t="n">
-        <v>175398.1883383342</v>
+        <v>233734.7272585393</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.664869419203323e-06</v>
+        <v>4.417522637566515e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>158658.431416276</v>
+        <v>211427.4129378019</v>
       </c>
     </row>
     <row r="6">
@@ -18322,28 +18322,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.3440797130637</v>
+        <v>157.4491587327507</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.5012996538628</v>
+        <v>215.4288851447002</v>
       </c>
       <c r="AC6" t="n">
-        <v>155.1334563185317</v>
+        <v>194.868654702891</v>
       </c>
       <c r="AD6" t="n">
-        <v>125344.0797130637</v>
+        <v>157449.1587327507</v>
       </c>
       <c r="AE6" t="n">
-        <v>171501.2996538628</v>
+        <v>215428.8851447002</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.754081547229365e-06</v>
+        <v>4.565408531059315e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>155133.4563185317</v>
+        <v>194868.654702891</v>
       </c>
     </row>
     <row r="7">
@@ -18428,28 +18428,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.1658956514798</v>
+        <v>153.8872074784229</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.1020827234781</v>
+        <v>210.5552662963325</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.5856734250048</v>
+        <v>190.4601671972429</v>
       </c>
       <c r="AD7" t="n">
-        <v>111165.8956514798</v>
+        <v>153887.2074784229</v>
       </c>
       <c r="AE7" t="n">
-        <v>152102.0827234781</v>
+        <v>210555.2662963325</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.864763531733339e-06</v>
+        <v>4.748884752668426e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.866319444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>137585.6734250048</v>
+        <v>190460.1671972429</v>
       </c>
     </row>
     <row r="8">
@@ -18534,28 +18534,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>110.502286689299</v>
+        <v>153.223598516242</v>
       </c>
       <c r="AB8" t="n">
-        <v>151.1941036650616</v>
+        <v>209.6472872379159</v>
       </c>
       <c r="AC8" t="n">
-        <v>136.7643506135666</v>
+        <v>189.6388443858047</v>
       </c>
       <c r="AD8" t="n">
-        <v>110502.286689299</v>
+        <v>153223.5985162421</v>
       </c>
       <c r="AE8" t="n">
-        <v>151194.1036650616</v>
+        <v>209647.2872379159</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.886550788412634e-06</v>
+        <v>4.78500123135879e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.814236111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>136764.3506135666</v>
+        <v>189638.8443858047</v>
       </c>
     </row>
     <row r="9">
@@ -18640,28 +18640,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>108.8112997132238</v>
+        <v>151.5326115401668</v>
       </c>
       <c r="AB9" t="n">
-        <v>148.8804206833163</v>
+        <v>207.3336042561706</v>
       </c>
       <c r="AC9" t="n">
-        <v>134.6714822883239</v>
+        <v>187.545976060562</v>
       </c>
       <c r="AD9" t="n">
-        <v>108811.2997132238</v>
+        <v>151532.6115401668</v>
       </c>
       <c r="AE9" t="n">
-        <v>148880.4206833163</v>
+        <v>207333.6042561707</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.937357492073717e-06</v>
+        <v>4.869222905391158e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>134671.4822883239</v>
+        <v>187545.976060562</v>
       </c>
     </row>
     <row r="10">
@@ -18746,28 +18746,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>107.1794196588951</v>
+        <v>139.3697500246028</v>
       </c>
       <c r="AB10" t="n">
-        <v>146.647610399518</v>
+        <v>190.6918405430046</v>
       </c>
       <c r="AC10" t="n">
-        <v>132.6517682842417</v>
+        <v>172.4924789193132</v>
       </c>
       <c r="AD10" t="n">
-        <v>107179.4196588951</v>
+        <v>139369.7500246027</v>
       </c>
       <c r="AE10" t="n">
-        <v>146647.610399518</v>
+        <v>190691.8405430046</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.988005495634118e-06</v>
+        <v>4.953181504136498e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>132651.7682842417</v>
+        <v>172492.4789193131</v>
       </c>
     </row>
     <row r="11">
@@ -18852,28 +18852,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>107.1633465195651</v>
+        <v>149.8846583465082</v>
       </c>
       <c r="AB11" t="n">
-        <v>146.6256184211898</v>
+        <v>205.0788019940442</v>
       </c>
       <c r="AC11" t="n">
-        <v>132.6318751894592</v>
+        <v>185.5063689616973</v>
       </c>
       <c r="AD11" t="n">
-        <v>107163.3465195651</v>
+        <v>149884.6583465082</v>
       </c>
       <c r="AE11" t="n">
-        <v>146625.6184211898</v>
+        <v>205078.8019940442</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.977644646203902e-06</v>
+        <v>4.936006446112049e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.605902777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>132631.8751894592</v>
+        <v>185506.3689616973</v>
       </c>
     </row>
     <row r="12">
@@ -18958,28 +18958,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>107.134122194898</v>
+        <v>149.8554340218411</v>
       </c>
       <c r="AB12" t="n">
-        <v>146.5856324108941</v>
+        <v>205.0388159837485</v>
       </c>
       <c r="AC12" t="n">
-        <v>132.5957053878654</v>
+        <v>185.4701991601035</v>
       </c>
       <c r="AD12" t="n">
-        <v>107134.122194898</v>
+        <v>149855.4340218411</v>
       </c>
       <c r="AE12" t="n">
-        <v>146585.6324108941</v>
+        <v>205038.8159837485</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.978075403620038e-06</v>
+        <v>4.936720507605406e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.605902777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>132595.7053878654</v>
+        <v>185470.1991601035</v>
       </c>
     </row>
   </sheetData>
@@ -19255,28 +19255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.2150148334462</v>
+        <v>260.2444843663081</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.7842367424856</v>
+        <v>356.0779846863333</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.9865832710166</v>
+        <v>322.0944015864591</v>
       </c>
       <c r="AD2" t="n">
-        <v>205215.0148334462</v>
+        <v>260244.4843663081</v>
       </c>
       <c r="AE2" t="n">
-        <v>280784.2367424856</v>
+        <v>356077.9846863333</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.822517739431441e-06</v>
+        <v>2.960577879593201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46006944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>253986.5832710166</v>
+        <v>322094.4015864591</v>
       </c>
     </row>
     <row r="3">
@@ -19361,28 +19361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.0914647249748</v>
+        <v>234.0355934032619</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.0408429944009</v>
+        <v>320.217823815878</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.6544888560695</v>
+        <v>289.656684139524</v>
       </c>
       <c r="AD3" t="n">
-        <v>179091.4647249748</v>
+        <v>234035.5934032619</v>
       </c>
       <c r="AE3" t="n">
-        <v>245040.8429944009</v>
+        <v>320217.823815878</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.053160577373228e-06</v>
+        <v>3.335244237743479e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.288194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>221654.4888560695</v>
+        <v>289656.684139524</v>
       </c>
     </row>
     <row r="4">
@@ -19467,28 +19467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.0565975895501</v>
+        <v>215.0859776138577</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.996498020655</v>
+        <v>294.2901234947814</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.0957796131419</v>
+        <v>266.2034871473086</v>
       </c>
       <c r="AD4" t="n">
-        <v>160056.5975895501</v>
+        <v>215085.9776138577</v>
       </c>
       <c r="AE4" t="n">
-        <v>218996.498020655</v>
+        <v>294290.1234947814</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.208877441960784e-06</v>
+        <v>3.588197553260367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.628472222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>198095.7796131419</v>
+        <v>266203.4871473087</v>
       </c>
     </row>
     <row r="5">
@@ -19573,28 +19573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.5938706205477</v>
+        <v>198.6003959776305</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.5221539831647</v>
+        <v>271.7338234075746</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.3347764802795</v>
+        <v>245.7999286824517</v>
       </c>
       <c r="AD5" t="n">
-        <v>154593.8706205477</v>
+        <v>198600.3959776305</v>
       </c>
       <c r="AE5" t="n">
-        <v>211522.1539831647</v>
+        <v>271733.8234075746</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.33219447931366e-06</v>
+        <v>3.788519166084716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>191334.7764802795</v>
+        <v>245799.9286824517</v>
       </c>
     </row>
     <row r="6">
@@ -19679,28 +19679,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.5321099044533</v>
+        <v>183.6238866075567</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.9139884934284</v>
+        <v>251.2423025704876</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.6934253811352</v>
+        <v>227.2640898340197</v>
       </c>
       <c r="AD6" t="n">
-        <v>139532.1099044533</v>
+        <v>183623.8866075567</v>
       </c>
       <c r="AE6" t="n">
-        <v>190913.9884934284</v>
+        <v>251242.3025704876</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.430228668431202e-06</v>
+        <v>3.947770209553734e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>172693.4253811352</v>
+        <v>227264.0898340197</v>
       </c>
     </row>
     <row r="7">
@@ -19785,28 +19785,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>136.6113914128711</v>
+        <v>180.7031681159745</v>
       </c>
       <c r="AB7" t="n">
-        <v>186.9177326002418</v>
+        <v>247.246046677301</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.0785665416127</v>
+        <v>223.6492309944971</v>
       </c>
       <c r="AD7" t="n">
-        <v>136611.3914128711</v>
+        <v>180703.1681159745</v>
       </c>
       <c r="AE7" t="n">
-        <v>186917.7326002418</v>
+        <v>247246.046677301</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.511678539201503e-06</v>
+        <v>4.080080957746232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.595486111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>169078.5665416127</v>
+        <v>223649.2309944971</v>
       </c>
     </row>
     <row r="8">
@@ -19891,28 +19891,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.1152930476957</v>
+        <v>178.036477550207</v>
       </c>
       <c r="AB8" t="n">
-        <v>183.5024606969226</v>
+        <v>243.5973629991349</v>
       </c>
       <c r="AC8" t="n">
-        <v>165.9892433953809</v>
+        <v>220.3487725656143</v>
       </c>
       <c r="AD8" t="n">
-        <v>134115.2930476957</v>
+        <v>178036.477550207</v>
       </c>
       <c r="AE8" t="n">
-        <v>183502.4606969226</v>
+        <v>243597.3629991349</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.580432070892721e-06</v>
+        <v>4.191767214985315e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>165989.2433953809</v>
+        <v>220348.7725656143</v>
       </c>
     </row>
     <row r="9">
@@ -19997,28 +19997,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>130.787807458718</v>
+        <v>163.8567294945966</v>
       </c>
       <c r="AB9" t="n">
-        <v>178.9496481157818</v>
+        <v>224.1960061431245</v>
       </c>
       <c r="AC9" t="n">
-        <v>161.8709448570702</v>
+        <v>202.7990539779601</v>
       </c>
       <c r="AD9" t="n">
-        <v>130787.807458718</v>
+        <v>163856.7294945966</v>
       </c>
       <c r="AE9" t="n">
-        <v>178949.6481157818</v>
+        <v>224196.0061431245</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.665067009425074e-06</v>
+        <v>4.329251927171317e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>161870.9448570702</v>
+        <v>202799.0539779601</v>
       </c>
     </row>
     <row r="10">
@@ -20103,28 +20103,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>131.0734621022795</v>
+        <v>164.1423841381581</v>
       </c>
       <c r="AB10" t="n">
-        <v>179.340493401296</v>
+        <v>224.5868514286388</v>
       </c>
       <c r="AC10" t="n">
-        <v>162.2244884170898</v>
+        <v>203.1525975379798</v>
       </c>
       <c r="AD10" t="n">
-        <v>131073.4621022795</v>
+        <v>164142.3841381581</v>
       </c>
       <c r="AE10" t="n">
-        <v>179340.493401296</v>
+        <v>224586.8514286388</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.664517859810927e-06</v>
+        <v>4.328359864413817e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>162224.4884170898</v>
+        <v>203152.5975379798</v>
       </c>
     </row>
     <row r="11">
@@ -20209,28 +20209,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>129.1767653003386</v>
+        <v>162.2456873362172</v>
       </c>
       <c r="AB11" t="n">
-        <v>176.7453491605244</v>
+        <v>221.9917071878671</v>
       </c>
       <c r="AC11" t="n">
-        <v>159.8770211003488</v>
+        <v>200.8051302212387</v>
       </c>
       <c r="AD11" t="n">
-        <v>129176.7653003386</v>
+        <v>162245.6873362172</v>
       </c>
       <c r="AE11" t="n">
-        <v>176745.3491605244</v>
+        <v>221991.7071878671</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.716137923540756e-06</v>
+        <v>4.412213763618879e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.022569444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>159877.0211003488</v>
+        <v>200805.1302212387</v>
       </c>
     </row>
     <row r="12">
@@ -20315,28 +20315,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>116.9584176248591</v>
+        <v>160.9648534733909</v>
       </c>
       <c r="AB12" t="n">
-        <v>160.0276668354854</v>
+        <v>220.239213790347</v>
       </c>
       <c r="AC12" t="n">
-        <v>144.7548509129918</v>
+        <v>199.2198923339374</v>
       </c>
       <c r="AD12" t="n">
-        <v>116958.4176248591</v>
+        <v>160964.8534733909</v>
       </c>
       <c r="AE12" t="n">
-        <v>160027.6668354854</v>
+        <v>220239.213790347</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.74232137714329e-06</v>
+        <v>4.454747315896511e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>144754.8509129918</v>
+        <v>199219.8923339374</v>
       </c>
     </row>
     <row r="13">
@@ -20421,28 +20421,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>115.6535257984774</v>
+        <v>159.6599616470092</v>
       </c>
       <c r="AB13" t="n">
-        <v>158.2422562708664</v>
+        <v>218.4538032257281</v>
       </c>
       <c r="AC13" t="n">
-        <v>143.13983742682</v>
+        <v>197.6048788477656</v>
       </c>
       <c r="AD13" t="n">
-        <v>115653.5257984774</v>
+        <v>159659.9616470092</v>
       </c>
       <c r="AE13" t="n">
-        <v>158242.2562708665</v>
+        <v>218453.803225728</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.769207742251933e-06</v>
+        <v>4.498422708503744e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.883680555555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>143139.83742682</v>
+        <v>197604.8788477656</v>
       </c>
     </row>
     <row r="14">
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>114.5639932183123</v>
+        <v>158.570429066844</v>
       </c>
       <c r="AB14" t="n">
-        <v>156.7515097279002</v>
+        <v>216.9630566827618</v>
       </c>
       <c r="AC14" t="n">
-        <v>141.7913656416381</v>
+        <v>196.2564070625837</v>
       </c>
       <c r="AD14" t="n">
-        <v>114563.9932183123</v>
+        <v>158570.4290668441</v>
       </c>
       <c r="AE14" t="n">
-        <v>156751.5097279002</v>
+        <v>216963.0566827618</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.79484204624032e-06</v>
+        <v>4.540064198023874e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>141791.3656416381</v>
+        <v>196256.4070625837</v>
       </c>
     </row>
     <row r="15">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>113.6788126420459</v>
+        <v>157.6852484905777</v>
       </c>
       <c r="AB15" t="n">
-        <v>155.5403666120423</v>
+        <v>215.7519135669039</v>
       </c>
       <c r="AC15" t="n">
-        <v>140.6958123249072</v>
+        <v>195.1608537458528</v>
       </c>
       <c r="AD15" t="n">
-        <v>113678.8126420459</v>
+        <v>157685.2484905777</v>
       </c>
       <c r="AE15" t="n">
-        <v>155540.3666120423</v>
+        <v>215751.9135669039</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.820981567873722e-06</v>
+        <v>4.582526385280905e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.762152777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>140695.8123249072</v>
+        <v>195160.8537458529</v>
       </c>
     </row>
     <row r="16">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>113.7321481267798</v>
+        <v>157.7385839753116</v>
       </c>
       <c r="AB16" t="n">
-        <v>155.6133425752507</v>
+        <v>215.8248895301123</v>
       </c>
       <c r="AC16" t="n">
-        <v>140.7618235646094</v>
+        <v>195.2268649855551</v>
       </c>
       <c r="AD16" t="n">
-        <v>113732.1481267798</v>
+        <v>157738.5839753116</v>
       </c>
       <c r="AE16" t="n">
-        <v>155613.3425752507</v>
+        <v>215824.8895301123</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.81544613976312e-06</v>
+        <v>4.5735343926853e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>140761.8235646095</v>
+        <v>195226.8649855551</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.33017333635726</v>
+        <v>135.5018394590449</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.8031929460618</v>
+        <v>185.39959466704</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.2240811982678</v>
+        <v>167.7053175620352</v>
       </c>
       <c r="AD2" t="n">
-        <v>96330.17333635726</v>
+        <v>135501.8394590449</v>
       </c>
       <c r="AE2" t="n">
-        <v>131803.1929460618</v>
+        <v>185399.59466704</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.240179894161308e-06</v>
+        <v>5.738599360282638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>119224.0811982678</v>
+        <v>167705.3175620352</v>
       </c>
     </row>
     <row r="3">
@@ -21142,28 +21142,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.0713629831055</v>
+        <v>122.4288668700294</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.3443448521788</v>
+        <v>167.5125768319115</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.1907793084311</v>
+        <v>151.5254116044985</v>
       </c>
       <c r="AD3" t="n">
-        <v>93071.3629831055</v>
+        <v>122428.8668700294</v>
       </c>
       <c r="AE3" t="n">
-        <v>127344.3448521789</v>
+        <v>167512.5768319115</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.4057950042682e-06</v>
+        <v>6.031916026627349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.336805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>115190.7793084311</v>
+        <v>151525.4116044985</v>
       </c>
     </row>
     <row r="4">
@@ -21248,28 +21248,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.90284161449023</v>
+        <v>122.2603455014141</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.1137664810015</v>
+        <v>167.2819984607341</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.98220701338</v>
+        <v>151.3168393094474</v>
       </c>
       <c r="AD4" t="n">
-        <v>92902.84161449023</v>
+        <v>122260.3455014141</v>
       </c>
       <c r="AE4" t="n">
-        <v>127113.7664810015</v>
+        <v>167281.9984607341</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.41410436986467e-06</v>
+        <v>6.046632530541894e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>114982.20701338</v>
+        <v>151316.8393094474</v>
       </c>
     </row>
   </sheetData>
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.2548513066064</v>
+        <v>232.4276869669428</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.8961516066106</v>
+        <v>318.0178152938818</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.6190452077452</v>
+        <v>287.6666413431351</v>
       </c>
       <c r="AD2" t="n">
-        <v>178254.8513066064</v>
+        <v>232427.6869669428</v>
       </c>
       <c r="AE2" t="n">
-        <v>243896.1516066106</v>
+        <v>318017.8152938818</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.020188309700301e-06</v>
+        <v>3.32021193941076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.618055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>220619.0452077452</v>
+        <v>287666.6413431351</v>
       </c>
     </row>
     <row r="3">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.8055618177969</v>
+        <v>209.8930566235617</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.1800433352831</v>
+        <v>287.1849399003567</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.8344391994946</v>
+        <v>259.7764123029457</v>
       </c>
       <c r="AD3" t="n">
-        <v>155805.5618177969</v>
+        <v>209893.0566235617</v>
       </c>
       <c r="AE3" t="n">
-        <v>213180.0433352831</v>
+        <v>287184.9399003566</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.24847220647708e-06</v>
+        <v>3.695400190928719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.637152777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>192834.4391994946</v>
+        <v>259776.4123029457</v>
       </c>
     </row>
     <row r="4">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.6609244461128</v>
+        <v>191.9139416283613</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.4044352841946</v>
+        <v>262.5851215813622</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.9918014606468</v>
+        <v>237.5243661182465</v>
       </c>
       <c r="AD4" t="n">
-        <v>148660.9244461128</v>
+        <v>191913.9416283613</v>
       </c>
       <c r="AE4" t="n">
-        <v>203404.4352841946</v>
+        <v>262585.1215813622</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.422610554866149e-06</v>
+        <v>3.981599363874349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>183991.8014606468</v>
+        <v>237524.3661182465</v>
       </c>
     </row>
     <row r="5">
@@ -21863,28 +21863,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.8582546192237</v>
+        <v>177.1965231474928</v>
       </c>
       <c r="AB5" t="n">
-        <v>183.1507693793522</v>
+        <v>242.4481003291691</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.6711170035574</v>
+        <v>219.3091939118694</v>
       </c>
       <c r="AD5" t="n">
-        <v>133858.2546192237</v>
+        <v>177196.5231474928</v>
       </c>
       <c r="AE5" t="n">
-        <v>183150.7693793522</v>
+        <v>242448.100329169</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.533318064544822e-06</v>
+        <v>4.163548934442894e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.664930555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>165671.1170035574</v>
+        <v>219309.1939118694</v>
       </c>
     </row>
     <row r="6">
@@ -21969,28 +21969,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.9021871440598</v>
+        <v>174.0698634717367</v>
       </c>
       <c r="AB6" t="n">
-        <v>179.1061474473419</v>
+        <v>238.1700666223119</v>
       </c>
       <c r="AC6" t="n">
-        <v>162.0125081120744</v>
+        <v>215.4394497377353</v>
       </c>
       <c r="AD6" t="n">
-        <v>130902.1871440597</v>
+        <v>174069.8634717367</v>
       </c>
       <c r="AE6" t="n">
-        <v>179106.1474473419</v>
+        <v>238170.0666223119</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.617534529061905e-06</v>
+        <v>4.30196004673473e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>162012.5081120744</v>
+        <v>215439.4497377353</v>
       </c>
     </row>
     <row r="7">
@@ -22075,28 +22075,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.0098979995965</v>
+        <v>160.5136889043494</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.1487898410977</v>
+        <v>219.6219105230088</v>
       </c>
       <c r="AC7" t="n">
-        <v>158.4328351615826</v>
+        <v>198.6615036240431</v>
       </c>
       <c r="AD7" t="n">
-        <v>128009.8979995965</v>
+        <v>160513.6889043494</v>
       </c>
       <c r="AE7" t="n">
-        <v>175148.7898410977</v>
+        <v>219621.9105230088</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.708194761320997e-06</v>
+        <v>4.450961594823603e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>158432.8351615826</v>
+        <v>198661.5036240431</v>
       </c>
     </row>
     <row r="8">
@@ -22181,28 +22181,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.1830333627257</v>
+        <v>157.4359610364232</v>
       </c>
       <c r="AB8" t="n">
-        <v>156.2302636467242</v>
+        <v>215.4108274743435</v>
       </c>
       <c r="AC8" t="n">
-        <v>141.3198665548759</v>
+        <v>194.852320431249</v>
       </c>
       <c r="AD8" t="n">
-        <v>114183.0333627257</v>
+        <v>157435.9610364232</v>
       </c>
       <c r="AE8" t="n">
-        <v>156230.2636467242</v>
+        <v>215410.8274743435</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.791449135515488e-06</v>
+        <v>4.587791496215185e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>141319.8665548759</v>
+        <v>194852.320431249</v>
       </c>
     </row>
     <row r="9">
@@ -22287,28 +22287,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.3708454486027</v>
+        <v>157.6237731223002</v>
       </c>
       <c r="AB9" t="n">
-        <v>156.4872364283055</v>
+        <v>215.6678002559248</v>
       </c>
       <c r="AC9" t="n">
-        <v>141.5523142148466</v>
+        <v>195.0847680912197</v>
       </c>
       <c r="AD9" t="n">
-        <v>114370.8454486027</v>
+        <v>157623.7731223002</v>
       </c>
       <c r="AE9" t="n">
-        <v>156487.2364283055</v>
+        <v>215667.8002559248</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.786526812934787e-06</v>
+        <v>4.579701579981338e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.970486111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>141552.3142148466</v>
+        <v>195084.7680912197</v>
       </c>
     </row>
     <row r="10">
@@ -22393,28 +22393,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.5299324222557</v>
+        <v>155.7828600959532</v>
       </c>
       <c r="AB10" t="n">
-        <v>153.9684180103079</v>
+        <v>213.1489818379272</v>
       </c>
       <c r="AC10" t="n">
-        <v>139.2738882914782</v>
+        <v>192.8063421678513</v>
       </c>
       <c r="AD10" t="n">
-        <v>112529.9324222557</v>
+        <v>155782.8600959532</v>
       </c>
       <c r="AE10" t="n">
-        <v>153968.4180103079</v>
+        <v>213148.9818379272</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.841567329064443e-06</v>
+        <v>4.670161552414365e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>139273.8882914782</v>
+        <v>192806.3421678513</v>
       </c>
     </row>
     <row r="11">
@@ -22499,28 +22499,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>110.6859586738646</v>
+        <v>153.9388863475621</v>
       </c>
       <c r="AB11" t="n">
-        <v>151.4454117773802</v>
+        <v>210.6259756049995</v>
       </c>
       <c r="AC11" t="n">
-        <v>136.9916742323587</v>
+        <v>190.5241281087318</v>
       </c>
       <c r="AD11" t="n">
-        <v>110685.9586738646</v>
+        <v>153938.8863475621</v>
       </c>
       <c r="AE11" t="n">
-        <v>151445.4117773802</v>
+        <v>210625.9756049995</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.896540722613452e-06</v>
+        <v>4.760511207807839e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>136991.6742323587</v>
+        <v>190524.1281087318</v>
       </c>
     </row>
     <row r="12">
@@ -22605,28 +22605,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>109.4699862222393</v>
+        <v>152.7229138959368</v>
       </c>
       <c r="AB12" t="n">
-        <v>149.7816646241488</v>
+        <v>208.9622284517681</v>
       </c>
       <c r="AC12" t="n">
-        <v>135.4867127723474</v>
+        <v>189.0191666487205</v>
       </c>
       <c r="AD12" t="n">
-        <v>109469.9862222393</v>
+        <v>152722.9138959368</v>
       </c>
       <c r="AE12" t="n">
-        <v>149781.6646241488</v>
+        <v>208962.2284517681</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.922830400033105e-06</v>
+        <v>4.803718714965891e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>135486.7127723474</v>
+        <v>189019.1666487205</v>
       </c>
     </row>
     <row r="13">
@@ -22711,28 +22711,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>109.6407575301506</v>
+        <v>152.8936852038481</v>
       </c>
       <c r="AB13" t="n">
-        <v>150.0153214615313</v>
+        <v>209.1958852891506</v>
       </c>
       <c r="AC13" t="n">
-        <v>135.6980697291096</v>
+        <v>189.2305236054828</v>
       </c>
       <c r="AD13" t="n">
-        <v>109640.7575301506</v>
+        <v>152893.6852038481</v>
       </c>
       <c r="AE13" t="n">
-        <v>150015.3214615313</v>
+        <v>209195.8852891506</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.915200800033018e-06</v>
+        <v>4.791179344803426e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>135698.0697291096</v>
+        <v>189230.5236054828</v>
       </c>
     </row>
   </sheetData>
@@ -23008,28 +23008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.8991845856757</v>
+        <v>142.9058491757033</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.4736451105548</v>
+        <v>195.5300874032225</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.7308972263683</v>
+        <v>176.8689702897155</v>
       </c>
       <c r="AD2" t="n">
-        <v>112899.1845856757</v>
+        <v>142905.8491757033</v>
       </c>
       <c r="AE2" t="n">
-        <v>154473.6451105548</v>
+        <v>195530.0874032225</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.000419291549081e-06</v>
+        <v>5.232469250236319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>139730.8972263683</v>
+        <v>176868.9702897154</v>
       </c>
     </row>
     <row r="3">
@@ -23114,28 +23114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.44180900679854</v>
+        <v>138.3652349275289</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.692426029149</v>
+        <v>189.3174186711105</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.8375699309702</v>
+        <v>171.2492299418589</v>
       </c>
       <c r="AD3" t="n">
-        <v>98441.80900679853</v>
+        <v>138365.2349275289</v>
       </c>
       <c r="AE3" t="n">
-        <v>134692.426029149</v>
+        <v>189317.4186711105</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.20066662667034e-06</v>
+        <v>5.581683117249817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>121837.5699309702</v>
+        <v>171249.2299418589</v>
       </c>
     </row>
     <row r="4">
@@ -23220,28 +23220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.46121208026177</v>
+        <v>125.3825358157177</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.6142418196075</v>
+        <v>171.5539169900776</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.1486018986186</v>
+        <v>155.181051930027</v>
       </c>
       <c r="AD4" t="n">
-        <v>95461.21208026177</v>
+        <v>125382.5358157177</v>
       </c>
       <c r="AE4" t="n">
-        <v>130614.2418196075</v>
+        <v>171553.9169900776</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.337244328275259e-06</v>
+        <v>5.819862702992559e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.336805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>118148.6018986186</v>
+        <v>155181.051930027</v>
       </c>
     </row>
     <row r="5">
@@ -23326,28 +23326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.6119713217917</v>
+        <v>125.5332950572476</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.820517264897</v>
+        <v>171.760192435367</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.3351907049191</v>
+        <v>155.3676407363275</v>
       </c>
       <c r="AD5" t="n">
-        <v>95611.9713217917</v>
+        <v>125533.2950572476</v>
       </c>
       <c r="AE5" t="n">
-        <v>130820.517264897</v>
+        <v>171760.192435367</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.320571269574962e-06</v>
+        <v>5.790786344497461e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.371527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>118335.1907049191</v>
+        <v>155367.6407363275</v>
       </c>
     </row>
   </sheetData>
@@ -23623,28 +23623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.9287039167826</v>
+        <v>168.2784052121795</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.6694523980759</v>
+        <v>230.2459379304837</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.0946836078593</v>
+        <v>208.2715887666682</v>
       </c>
       <c r="AD2" t="n">
-        <v>126928.7039167826</v>
+        <v>168278.4052121795</v>
       </c>
       <c r="AE2" t="n">
-        <v>173669.4523980759</v>
+        <v>230245.9379304837</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.589291071356865e-06</v>
+        <v>4.401623212470895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>157094.6836078592</v>
+        <v>208271.5887666682</v>
       </c>
     </row>
     <row r="3">
@@ -23729,28 +23729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.4441515694604</v>
+        <v>162.6232606642651</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.1652459151007</v>
+        <v>222.5083196726617</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.3066680593969</v>
+        <v>201.2724379355548</v>
       </c>
       <c r="AD3" t="n">
-        <v>121444.1515694604</v>
+        <v>162623.2606642651</v>
       </c>
       <c r="AE3" t="n">
-        <v>166165.2459151007</v>
+        <v>222508.3196726617</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779727522925342e-06</v>
+        <v>4.725352558698911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>150306.6680593968</v>
+        <v>201272.4379355548</v>
       </c>
     </row>
     <row r="4">
@@ -23835,28 +23835,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.6025046551368</v>
+        <v>147.8668650959621</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.8582498396827</v>
+        <v>202.3179682498929</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.9377431883623</v>
+        <v>183.0090253152324</v>
       </c>
       <c r="AD4" t="n">
-        <v>106602.5046551368</v>
+        <v>147866.8650959621</v>
       </c>
       <c r="AE4" t="n">
-        <v>145858.2498396827</v>
+        <v>202317.9682498929</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.948188727920436e-06</v>
+        <v>5.011725442191941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>131937.7431883623</v>
+        <v>183009.0253152324</v>
       </c>
     </row>
     <row r="5">
@@ -23941,28 +23941,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.6806618325089</v>
+        <v>144.9450222733342</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.8604555871572</v>
+        <v>198.3201739973674</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.3214928083571</v>
+        <v>179.3927749352273</v>
       </c>
       <c r="AD5" t="n">
-        <v>103680.6618325089</v>
+        <v>144945.0222733342</v>
       </c>
       <c r="AE5" t="n">
-        <v>141860.4555871573</v>
+        <v>198320.1739973674</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.065005750657956e-06</v>
+        <v>5.210306638636481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>128321.4928083571</v>
+        <v>179392.7749352273</v>
       </c>
     </row>
     <row r="6">
@@ -24047,28 +24047,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.7223563493793</v>
+        <v>133.8199731754986</v>
       </c>
       <c r="AB6" t="n">
-        <v>140.5492597476859</v>
+        <v>183.0983910191894</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.1354356595296</v>
+        <v>165.6237375605751</v>
       </c>
       <c r="AD6" t="n">
-        <v>102722.3563493793</v>
+        <v>133819.9731754986</v>
       </c>
       <c r="AE6" t="n">
-        <v>140549.2597476859</v>
+        <v>183098.3910191894</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.095804035202451e-06</v>
+        <v>5.262661681163349e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>127135.4356595296</v>
+        <v>165623.7375605751</v>
       </c>
     </row>
     <row r="7">
@@ -24153,28 +24153,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.8087426030544</v>
+        <v>131.7357672285814</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.9309689972852</v>
+        <v>180.2466884939418</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.7670309035521</v>
+        <v>163.0441975219466</v>
       </c>
       <c r="AD7" t="n">
-        <v>100808.7426030544</v>
+        <v>131735.7672285814</v>
       </c>
       <c r="AE7" t="n">
-        <v>137930.9689972852</v>
+        <v>180246.6884939418</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.163564966820589e-06</v>
+        <v>5.377850773965015e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>124767.0309035521</v>
+        <v>163044.1975219466</v>
       </c>
     </row>
     <row r="8">
@@ -24259,28 +24259,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>100.8393116765907</v>
+        <v>131.7663363021178</v>
       </c>
       <c r="AB8" t="n">
-        <v>137.9727949523099</v>
+        <v>180.2885144489665</v>
       </c>
       <c r="AC8" t="n">
-        <v>124.8048650481324</v>
+        <v>163.0820316665269</v>
       </c>
       <c r="AD8" t="n">
-        <v>100839.3116765907</v>
+        <v>131766.3363021178</v>
       </c>
       <c r="AE8" t="n">
-        <v>137972.7949523099</v>
+        <v>180288.5144489665</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.161306269099984e-06</v>
+        <v>5.374011137538293e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>124804.8650481324</v>
+        <v>163082.0316665269</v>
       </c>
     </row>
   </sheetData>
@@ -24556,28 +24556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.42531249869681</v>
+        <v>119.1645002361378</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.7239018439041</v>
+        <v>163.0461263897314</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.9158662995412</v>
+        <v>147.4852329238161</v>
       </c>
       <c r="AD2" t="n">
-        <v>90425.31249869682</v>
+        <v>119164.5002361378</v>
       </c>
       <c r="AE2" t="n">
-        <v>123723.9018439041</v>
+        <v>163046.1263897314</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.478619016164487e-06</v>
+        <v>6.272773266348422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>111915.8662995412</v>
+        <v>147485.2329238161</v>
       </c>
     </row>
     <row r="3">
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.23757747623105</v>
+        <v>118.9767652136721</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.4670345038819</v>
+        <v>162.7892590497092</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.6835140179351</v>
+        <v>147.25288064221</v>
       </c>
       <c r="AD3" t="n">
-        <v>90237.57747623105</v>
+        <v>118976.7652136721</v>
       </c>
       <c r="AE3" t="n">
-        <v>123467.0345038819</v>
+        <v>162789.2590497092</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.493993115311032e-06</v>
+        <v>6.300496405235579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>111683.5140179351</v>
+        <v>147252.88064221</v>
       </c>
     </row>
   </sheetData>
@@ -24959,28 +24959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.00970689856659</v>
+        <v>113.6796170509744</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.6822754590384</v>
+        <v>155.5414672398263</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.4508442573693</v>
+        <v>140.6968079103202</v>
       </c>
       <c r="AD2" t="n">
-        <v>86009.7068985666</v>
+        <v>113679.6170509744</v>
       </c>
       <c r="AE2" t="n">
-        <v>117682.2754590384</v>
+        <v>155541.4672398262</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.586129523348712e-06</v>
+        <v>6.690571410309424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.414930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>106450.8442573693</v>
+        <v>140696.8079103202</v>
       </c>
     </row>
   </sheetData>
@@ -42765,28 +42765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.8631980594437</v>
+        <v>226.5371475380852</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.5190537708927</v>
+        <v>309.9581193750641</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.9460072356439</v>
+        <v>280.3761514909526</v>
       </c>
       <c r="AD2" t="n">
-        <v>172863.1980594437</v>
+        <v>226537.1475380852</v>
       </c>
       <c r="AE2" t="n">
-        <v>236519.0537708927</v>
+        <v>309958.1193750642</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101842585353226e-06</v>
+        <v>3.468965922513898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>213946.0072356439</v>
+        <v>280376.1514909526</v>
       </c>
     </row>
     <row r="3">
@@ -42871,28 +42871,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.7333475480955</v>
+        <v>194.7237295454618</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.6082601180661</v>
+        <v>266.4295973686316</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.7944191524802</v>
+        <v>241.0019305321357</v>
       </c>
       <c r="AD3" t="n">
-        <v>151733.3475480955</v>
+        <v>194723.7295454618</v>
       </c>
       <c r="AE3" t="n">
-        <v>207608.2601180661</v>
+        <v>266429.5973686316</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.324520975229931e-06</v>
+        <v>3.836483333924962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.411458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>187794.4191524802</v>
+        <v>241001.9305321357</v>
       </c>
     </row>
     <row r="4">
@@ -42977,28 +42977,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.7941086142323</v>
+        <v>177.8697419576193</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.4312461022867</v>
+        <v>243.3692280055014</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.8293868252159</v>
+        <v>220.1424104555836</v>
       </c>
       <c r="AD4" t="n">
-        <v>134794.1086142323</v>
+        <v>177869.7419576193</v>
       </c>
       <c r="AE4" t="n">
-        <v>184431.2461022867</v>
+        <v>243369.2280055014</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.484210746934596e-06</v>
+        <v>4.100041785008685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.873263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>166829.3868252159</v>
+        <v>220142.4104555837</v>
       </c>
     </row>
     <row r="5">
@@ -43083,28 +43083,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.9034577587001</v>
+        <v>173.9790911020871</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.1078859583484</v>
+        <v>238.0458678615631</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.0140807020305</v>
+        <v>215.3271043323983</v>
       </c>
       <c r="AD5" t="n">
-        <v>130903.4577587001</v>
+        <v>173979.0911020871</v>
       </c>
       <c r="AE5" t="n">
-        <v>179107.8859583485</v>
+        <v>238045.8678615631</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.600144034867978e-06</v>
+        <v>4.29138276740595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.517361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>162014.0807020305</v>
+        <v>215327.1043323983</v>
       </c>
     </row>
     <row r="6">
@@ -43189,28 +43189,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.0589262036812</v>
+        <v>170.963967346476</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.2158723928981</v>
+        <v>233.920442521266</v>
       </c>
       <c r="AC6" t="n">
-        <v>158.4935154487902</v>
+        <v>211.5954037965069</v>
       </c>
       <c r="AD6" t="n">
-        <v>128058.9262036812</v>
+        <v>170963.967346476</v>
       </c>
       <c r="AE6" t="n">
-        <v>175215.8723928981</v>
+        <v>233920.4425212659</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.685922957505556e-06</v>
+        <v>4.432955767007967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.274305555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>158493.5154487902</v>
+        <v>211595.4037965069</v>
       </c>
     </row>
     <row r="7">
@@ -43295,28 +43295,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.1123641179282</v>
+        <v>157.4191786340194</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.184256154028</v>
+        <v>215.3878650509874</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.8466710053476</v>
+        <v>194.83154950935</v>
       </c>
       <c r="AD7" t="n">
-        <v>125112.3641179282</v>
+        <v>157419.1786340194</v>
       </c>
       <c r="AE7" t="n">
-        <v>171184.256154028</v>
+        <v>215387.8650509874</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.781498107853123e-06</v>
+        <v>4.590696856614415e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH7" t="n">
-        <v>154846.6710053476</v>
+        <v>194831.54950935</v>
       </c>
     </row>
     <row r="8">
@@ -43401,28 +43401,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>113.481126059469</v>
+        <v>156.4714185482843</v>
       </c>
       <c r="AB8" t="n">
-        <v>155.2698831084441</v>
+        <v>214.0910978894611</v>
       </c>
       <c r="AC8" t="n">
-        <v>140.4511433872664</v>
+        <v>193.6585439856953</v>
       </c>
       <c r="AD8" t="n">
-        <v>113481.126059469</v>
+        <v>156471.4185482843</v>
       </c>
       <c r="AE8" t="n">
-        <v>155269.8831084441</v>
+        <v>214091.0978894611</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.806247657860657e-06</v>
+        <v>4.631544513889977e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>140451.1433872664</v>
+        <v>193658.5439856953</v>
       </c>
     </row>
     <row r="9">
@@ -43507,28 +43507,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>111.5758029157393</v>
+        <v>154.5660954045546</v>
       </c>
       <c r="AB9" t="n">
-        <v>152.6629359262699</v>
+        <v>211.4841507072868</v>
       </c>
       <c r="AC9" t="n">
-        <v>138.0929995852846</v>
+        <v>191.3004001837135</v>
       </c>
       <c r="AD9" t="n">
-        <v>111575.8029157393</v>
+        <v>154566.0954045546</v>
       </c>
       <c r="AE9" t="n">
-        <v>152662.9359262699</v>
+        <v>211484.1507072868</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.861714574756523e-06</v>
+        <v>4.723089354535754e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.831597222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>138092.9995852846</v>
+        <v>191300.4001837135</v>
       </c>
     </row>
     <row r="10">
@@ -43613,28 +43613,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>109.7967318776967</v>
+        <v>152.787024366512</v>
       </c>
       <c r="AB10" t="n">
-        <v>150.2287324449464</v>
+        <v>209.0499472259633</v>
       </c>
       <c r="AC10" t="n">
-        <v>135.8911130677918</v>
+        <v>189.0985136662207</v>
       </c>
       <c r="AD10" t="n">
-        <v>109796.7318776967</v>
+        <v>152787.024366512</v>
       </c>
       <c r="AE10" t="n">
-        <v>150228.7324449464</v>
+        <v>209049.9472259633</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.915537527002208e-06</v>
+        <v>4.811920929502627e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>135891.1130677918</v>
+        <v>189098.5136662207</v>
       </c>
     </row>
     <row r="11">
@@ -43719,28 +43719,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>108.6395529812397</v>
+        <v>151.629845470055</v>
       </c>
       <c r="AB11" t="n">
-        <v>148.6454292276848</v>
+        <v>207.4666440087018</v>
       </c>
       <c r="AC11" t="n">
-        <v>134.4589180874052</v>
+        <v>187.6663186858341</v>
       </c>
       <c r="AD11" t="n">
-        <v>108639.5529812397</v>
+        <v>151629.845470055</v>
       </c>
       <c r="AE11" t="n">
-        <v>148645.4292276848</v>
+        <v>207466.6440087018</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.93846295184995e-06</v>
+        <v>4.849757976915296e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>134458.9180874052</v>
+        <v>187666.3186858341</v>
       </c>
     </row>
     <row r="12">
@@ -43825,28 +43825,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>107.9707685176625</v>
+        <v>140.3628343797743</v>
       </c>
       <c r="AB12" t="n">
-        <v>147.7303688199307</v>
+        <v>192.0506223695393</v>
       </c>
       <c r="AC12" t="n">
-        <v>133.6311897606715</v>
+        <v>173.7215805153861</v>
       </c>
       <c r="AD12" t="n">
-        <v>107970.7685176625</v>
+        <v>140362.8343797743</v>
       </c>
       <c r="AE12" t="n">
-        <v>147730.3688199307</v>
+        <v>192050.6223695393</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.96370794325891e-06</v>
+        <v>4.891423330696829e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>133631.1897606715</v>
+        <v>173721.5805153861</v>
       </c>
     </row>
   </sheetData>
@@ -44122,28 +44122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.23193498406312</v>
+        <v>119.0138847154618</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.8816053789687</v>
+        <v>162.8400475896548</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.0129047954663</v>
+        <v>147.2988219951853</v>
       </c>
       <c r="AD2" t="n">
-        <v>83231.93498406312</v>
+        <v>119013.8847154618</v>
       </c>
       <c r="AE2" t="n">
-        <v>113881.6053789687</v>
+        <v>162840.0475896548</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.597368403989678e-06</v>
+        <v>6.917872844271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>103012.9047954663</v>
+        <v>147298.8219951853</v>
       </c>
     </row>
   </sheetData>
@@ -44419,28 +44419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.36183676251446</v>
+        <v>120.9701037629245</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.5323191906505</v>
+        <v>165.5166327926854</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.1243224117896</v>
+        <v>149.7199576630505</v>
       </c>
       <c r="AD2" t="n">
-        <v>87361.83676251446</v>
+        <v>120970.1037629245</v>
       </c>
       <c r="AE2" t="n">
-        <v>119532.3191906505</v>
+        <v>165516.6327926854</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.364091850817791e-06</v>
+        <v>6.938773568498708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.595486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>108124.3224117896</v>
+        <v>149719.9576630504</v>
       </c>
     </row>
   </sheetData>
@@ -44716,28 +44716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.75263518146032</v>
+        <v>139.3081982076377</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.4859562308898</v>
+        <v>190.6076226315586</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4599281274929</v>
+        <v>172.4162986471349</v>
       </c>
       <c r="AD2" t="n">
-        <v>99752.63518146033</v>
+        <v>139308.1982076377</v>
       </c>
       <c r="AE2" t="n">
-        <v>136485.9562308898</v>
+        <v>190607.6226315586</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.107503927326426e-06</v>
+        <v>5.459761816194533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>123459.9281274929</v>
+        <v>172416.2986471349</v>
       </c>
     </row>
     <row r="3">
@@ -44822,28 +44822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.42293058733523</v>
+        <v>125.0683571518764</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.5618633921252</v>
+        <v>171.1240438816257</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.1012223947416</v>
+        <v>154.792205307715</v>
       </c>
       <c r="AD3" t="n">
-        <v>95422.93058733523</v>
+        <v>125068.3571518764</v>
       </c>
       <c r="AE3" t="n">
-        <v>130561.8633921252</v>
+        <v>171124.0438816257</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.31881015684278e-06</v>
+        <v>5.831018525894015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.440972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>118101.2223947416</v>
+        <v>154792.205307715</v>
       </c>
     </row>
     <row r="4">
@@ -44928,28 +44928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.27112419796813</v>
+        <v>123.9165507625093</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.9859110760823</v>
+        <v>169.5480915655828</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.6756767558783</v>
+        <v>153.3666596688517</v>
       </c>
       <c r="AD4" t="n">
-        <v>94271.12419796814</v>
+        <v>123916.5507625093</v>
       </c>
       <c r="AE4" t="n">
-        <v>128985.9110760823</v>
+        <v>169548.0915655828</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.370042623768509e-06</v>
+        <v>5.921031949275656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.345486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>116675.6767558783</v>
+        <v>153366.6596688517</v>
       </c>
     </row>
     <row r="5">
@@ -45034,28 +45034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.31245661573068</v>
+        <v>123.9578831802719</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.0424639135226</v>
+        <v>169.6046444030231</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.7268322698857</v>
+        <v>153.4178151828591</v>
       </c>
       <c r="AD5" t="n">
-        <v>94312.45661573068</v>
+        <v>123957.8831802719</v>
       </c>
       <c r="AE5" t="n">
-        <v>129042.4639135226</v>
+        <v>169604.6444030231</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.368639331786401e-06</v>
+        <v>5.918566420619839e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.345486111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>116726.8322698858</v>
+        <v>153417.8151828591</v>
       </c>
     </row>
   </sheetData>
@@ -45331,28 +45331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.4954952846267</v>
+        <v>164.5271223742884</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.9719848850874</v>
+        <v>225.1132672567649</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.8455358013719</v>
+        <v>203.628772978299</v>
       </c>
       <c r="AD2" t="n">
-        <v>123495.4952846267</v>
+        <v>164527.1223742884</v>
       </c>
       <c r="AE2" t="n">
-        <v>168971.9848850874</v>
+        <v>225113.2672567649</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.679224043426937e-06</v>
+        <v>4.581174535114522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>152845.5358013719</v>
+        <v>203628.772978299</v>
       </c>
     </row>
     <row r="3">
@@ -45437,28 +45437,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.9525766373145</v>
+        <v>148.7263864631118</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.3879190555264</v>
+        <v>203.494003303833</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.9852825702785</v>
+        <v>184.0728212342004</v>
       </c>
       <c r="AD3" t="n">
-        <v>117952.5766373145</v>
+        <v>148726.3864631118</v>
       </c>
       <c r="AE3" t="n">
-        <v>161387.9190555264</v>
+        <v>203494.003303833</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.883675783436617e-06</v>
+        <v>4.930764225939401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.144097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>145985.2825702785</v>
+        <v>184072.8212342004</v>
       </c>
     </row>
     <row r="4">
@@ -45543,28 +45543,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.935893056721</v>
+        <v>144.8821792918111</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.209674208131</v>
+        <v>198.2341894576109</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.6373824942767</v>
+        <v>179.314996639265</v>
       </c>
       <c r="AD4" t="n">
-        <v>103935.893056721</v>
+        <v>144882.1792918111</v>
       </c>
       <c r="AE4" t="n">
-        <v>142209.674208131</v>
+        <v>198234.1894576109</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.029529728386667e-06</v>
+        <v>5.180158217490963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>128637.3824942767</v>
+        <v>179314.996639265</v>
       </c>
     </row>
     <row r="5">
@@ -45649,28 +45649,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.99809476764618</v>
+        <v>130.6865637388719</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.8218048656219</v>
+        <v>178.8111219917307</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.7637238398927</v>
+        <v>161.7456394718759</v>
       </c>
       <c r="AD5" t="n">
-        <v>99998.09476764618</v>
+        <v>130686.5637388719</v>
       </c>
       <c r="AE5" t="n">
-        <v>136821.8048656218</v>
+        <v>178811.1219917307</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.193579830749969e-06</v>
+        <v>5.460665610395817e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.449652777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>123763.7238398927</v>
+        <v>161745.6394718759</v>
       </c>
     </row>
     <row r="6">
@@ -45755,28 +45755,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.67661269529444</v>
+        <v>130.3650816665202</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.3819389114423</v>
+        <v>178.3712560375512</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.3658380750243</v>
+        <v>161.3477537070074</v>
       </c>
       <c r="AD6" t="n">
-        <v>99676.61269529443</v>
+        <v>130365.0816665202</v>
       </c>
       <c r="AE6" t="n">
-        <v>136381.9389114423</v>
+        <v>178371.2560375512</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.195596354061738e-06</v>
+        <v>5.464113640532754e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.440972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>123365.8380750243</v>
+        <v>161347.7537070074</v>
       </c>
     </row>
     <row r="7">
@@ -45861,28 +45861,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.47978946227283</v>
+        <v>130.1682584334986</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.1126366807941</v>
+        <v>178.101953806903</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.122237671301</v>
+        <v>161.1041533032841</v>
       </c>
       <c r="AD7" t="n">
-        <v>99479.78946227283</v>
+        <v>130168.2584334986</v>
       </c>
       <c r="AE7" t="n">
-        <v>136112.6366807941</v>
+        <v>178101.953806903</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.198585553323889e-06</v>
+        <v>5.469224838147506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.440972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>123122.237671301</v>
+        <v>161104.1533032841</v>
       </c>
     </row>
   </sheetData>
@@ -46158,28 +46158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.4414948953789</v>
+        <v>202.1660231124042</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.4724462092178</v>
+        <v>276.6124717577367</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.9578829219489</v>
+        <v>250.2129656813018</v>
       </c>
       <c r="AD2" t="n">
-        <v>149441.4948953789</v>
+        <v>202166.0231124042</v>
       </c>
       <c r="AE2" t="n">
-        <v>204472.4462092178</v>
+        <v>276612.4717577367</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.320909160786649e-06</v>
+        <v>3.883513977561647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.602430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>184957.8829219489</v>
+        <v>250212.9656813018</v>
       </c>
     </row>
     <row r="3">
@@ -46264,28 +46264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.4021681854298</v>
+        <v>172.6500634427073</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.4219994488652</v>
+        <v>236.2274335854383</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.3936542383643</v>
+        <v>213.6822188713978</v>
       </c>
       <c r="AD3" t="n">
-        <v>130402.1681854298</v>
+        <v>172650.0634427073</v>
       </c>
       <c r="AE3" t="n">
-        <v>178421.9994488652</v>
+        <v>236227.4335854384</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.551569943226185e-06</v>
+        <v>4.269472371717681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.821180555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>161393.6542383643</v>
+        <v>213682.2188713978</v>
       </c>
     </row>
     <row r="4">
@@ -46370,28 +46370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.7601066327981</v>
+        <v>167.8374096894834</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.0705260392556</v>
+        <v>229.6425484009819</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.6483565366169</v>
+        <v>207.7257858869993</v>
       </c>
       <c r="AD4" t="n">
-        <v>125760.1066327981</v>
+        <v>167837.4096894834</v>
       </c>
       <c r="AE4" t="n">
-        <v>172070.5260392556</v>
+        <v>229642.5484009819</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.702078862868251e-06</v>
+        <v>4.521314840631697e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>155648.3565366169</v>
+        <v>207725.7858869993</v>
       </c>
     </row>
     <row r="5">
@@ -46476,28 +46476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.5974242785716</v>
+        <v>154.2834352300808</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.7432045145069</v>
+        <v>211.0974025864853</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.7340285047551</v>
+        <v>190.9505627607567</v>
       </c>
       <c r="AD5" t="n">
-        <v>122597.4242785716</v>
+        <v>154283.4352300808</v>
       </c>
       <c r="AE5" t="n">
-        <v>167743.2045145069</v>
+        <v>211097.4025864853</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.807476493121723e-06</v>
+        <v>4.69767381977955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.109374999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>151734.0285047551</v>
+        <v>190950.5627607567</v>
       </c>
     </row>
     <row r="6">
@@ -46582,28 +46582,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.1814944276863</v>
+        <v>151.3440488303922</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.3869374234819</v>
+        <v>207.0756044378575</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.1296577817089</v>
+        <v>187.3125993828035</v>
       </c>
       <c r="AD6" t="n">
-        <v>109181.4944276863</v>
+        <v>151344.0488303922</v>
       </c>
       <c r="AE6" t="n">
-        <v>149386.9374234819</v>
+        <v>207075.6044378575</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.902987347413373e-06</v>
+        <v>4.85748952645062e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>135129.6577817089</v>
+        <v>187312.5993828035</v>
       </c>
     </row>
     <row r="7">
@@ -46688,28 +46688,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.0608429464534</v>
+        <v>150.2233973491593</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.8536126272057</v>
+        <v>205.5422796415814</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.742671351954</v>
+        <v>185.9256129530486</v>
       </c>
       <c r="AD7" t="n">
-        <v>108060.8429464534</v>
+        <v>150223.3973491593</v>
       </c>
       <c r="AE7" t="n">
-        <v>147853.6126272057</v>
+        <v>205542.2796415814</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.944810708982105e-06</v>
+        <v>4.927471416300083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.779513888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>133742.671351954</v>
+        <v>185925.6129530486</v>
       </c>
     </row>
     <row r="8">
@@ -46794,28 +46794,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>105.3329378582552</v>
+        <v>137.1042001557849</v>
       </c>
       <c r="AB8" t="n">
-        <v>144.1211725388559</v>
+        <v>187.5920152634834</v>
       </c>
       <c r="AC8" t="n">
-        <v>130.3664501071225</v>
+        <v>169.6884966138364</v>
       </c>
       <c r="AD8" t="n">
-        <v>105332.9378582552</v>
+        <v>137104.2001557849</v>
       </c>
       <c r="AE8" t="n">
-        <v>144121.1725388559</v>
+        <v>187592.0152634834</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.034412490198898e-06</v>
+        <v>5.077399632211772e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>130366.4501071225</v>
+        <v>169688.4966138364</v>
       </c>
     </row>
     <row r="9">
@@ -46900,28 +46900,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>104.4363780959883</v>
+        <v>136.2076403935181</v>
       </c>
       <c r="AB9" t="n">
-        <v>142.8944599186978</v>
+        <v>186.3653026433254</v>
       </c>
       <c r="AC9" t="n">
-        <v>129.25681321773</v>
+        <v>168.5788597244439</v>
       </c>
       <c r="AD9" t="n">
-        <v>104436.3780959883</v>
+        <v>136207.6403935181</v>
       </c>
       <c r="AE9" t="n">
-        <v>142894.4599186978</v>
+        <v>186365.3026433254</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.058186737511745e-06</v>
+        <v>5.117180431609434e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>129256.81321773</v>
+        <v>168578.8597244439</v>
       </c>
     </row>
     <row r="10">
@@ -47006,28 +47006,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>104.5496652867174</v>
+        <v>136.3209275842472</v>
       </c>
       <c r="AB10" t="n">
-        <v>143.0494644509315</v>
+        <v>186.520307175559</v>
       </c>
       <c r="AC10" t="n">
-        <v>129.3970243349575</v>
+        <v>168.7190708416714</v>
       </c>
       <c r="AD10" t="n">
-        <v>104549.6652867174</v>
+        <v>136320.9275842472</v>
       </c>
       <c r="AE10" t="n">
-        <v>143049.4644509315</v>
+        <v>186520.307175559</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.054025094606885e-06</v>
+        <v>5.110216868078509e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>129397.0243349575</v>
+        <v>168719.0708416714</v>
       </c>
     </row>
   </sheetData>
